--- a/excel/finished/焦化/配煤-配煤量月报表.xlsx
+++ b/excel/finished/焦化/配煤-配煤量月报表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">焦化分厂配煤量记录       </t>
   </si>
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -253,7 +253,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,45 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,9 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="4"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,20 +343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -367,15 +352,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,7 +368,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="4"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -404,8 +404,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -416,110 +482,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -536,38 +506,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -578,14 +542,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
   </fills>
@@ -616,6 +616,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -633,6 +642,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,60 +710,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="B1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1276,8 +1276,8 @@
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:18">
       <c r="B4" s="10">
-        <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1)+1)</f>
-        <v>43466</v>
+        <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1))</f>
+        <v>43525</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>IF(_val_month_day!A11="","",_val_month_day!A11)</f>
@@ -1347,7 +1347,7 @@
     <row r="5" ht="16.5" customHeight="1" spans="2:18">
       <c r="B5" s="10">
         <f ca="1" t="shared" ref="B5:B34" si="0">B4+1</f>
-        <v>43467</v>
+        <v>43526</v>
       </c>
       <c r="C5" s="11" t="str">
         <f>IF(_val_month_day!A12="","",_val_month_day!A12)</f>
@@ -1417,7 +1417,7 @@
     <row r="6" ht="16.5" customHeight="1" spans="2:18">
       <c r="B6" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43468</v>
+        <v>43527</v>
       </c>
       <c r="C6" s="11" t="str">
         <f>IF(_val_month_day!A13="","",_val_month_day!A13)</f>
@@ -1487,7 +1487,7 @@
     <row r="7" ht="16.5" customHeight="1" spans="2:18">
       <c r="B7" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43469</v>
+        <v>43528</v>
       </c>
       <c r="C7" s="11" t="str">
         <f>IF(_val_month_day!A14="","",_val_month_day!A14)</f>
@@ -1557,7 +1557,7 @@
     <row r="8" ht="16.5" customHeight="1" spans="2:18">
       <c r="B8" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43470</v>
+        <v>43529</v>
       </c>
       <c r="C8" s="11" t="str">
         <f>IF(_val_month_day!A15="","",_val_month_day!A15)</f>
@@ -1627,7 +1627,7 @@
     <row r="9" ht="16.5" customHeight="1" spans="2:18">
       <c r="B9" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43471</v>
+        <v>43530</v>
       </c>
       <c r="C9" s="11" t="str">
         <f>IF(_val_month_day!A16="","",_val_month_day!A16)</f>
@@ -1697,7 +1697,7 @@
     <row r="10" ht="16.5" customHeight="1" spans="2:18">
       <c r="B10" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43472</v>
+        <v>43531</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>IF(_val_month_day!A17="","",_val_month_day!A17)</f>
@@ -1767,7 +1767,7 @@
     <row r="11" ht="16.5" customHeight="1" spans="2:18">
       <c r="B11" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43473</v>
+        <v>43532</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>IF(_val_month_day!A18="","",_val_month_day!A18)</f>
@@ -1837,7 +1837,7 @@
     <row r="12" ht="16.5" customHeight="1" spans="2:18">
       <c r="B12" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43474</v>
+        <v>43533</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>IF(_val_month_day!A19="","",_val_month_day!A19)</f>
@@ -1907,7 +1907,7 @@
     <row r="13" ht="16.5" customHeight="1" spans="2:18">
       <c r="B13" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43475</v>
+        <v>43534</v>
       </c>
       <c r="C13" s="11" t="str">
         <f>IF(_val_month_day!A20="","",_val_month_day!A20)</f>
@@ -1977,7 +1977,7 @@
     <row r="14" ht="16.5" customHeight="1" spans="2:18">
       <c r="B14" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43476</v>
+        <v>43535</v>
       </c>
       <c r="C14" s="11" t="str">
         <f>IF(_val_month_day!A21="","",_val_month_day!A21)</f>
@@ -2047,7 +2047,7 @@
     <row r="15" ht="16.5" customHeight="1" spans="2:18">
       <c r="B15" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43477</v>
+        <v>43536</v>
       </c>
       <c r="C15" s="11" t="str">
         <f>IF(_val_month_day!A22="","",_val_month_day!A22)</f>
@@ -2117,7 +2117,7 @@
     <row r="16" ht="16.5" customHeight="1" spans="2:18">
       <c r="B16" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43478</v>
+        <v>43537</v>
       </c>
       <c r="C16" s="11" t="str">
         <f>IF(_val_month_day!A23="","",_val_month_day!A23)</f>
@@ -2187,7 +2187,7 @@
     <row r="17" ht="16.5" customHeight="1" spans="2:18">
       <c r="B17" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43479</v>
+        <v>43538</v>
       </c>
       <c r="C17" s="11" t="str">
         <f>IF(_val_month_day!A24="","",_val_month_day!A24)</f>
@@ -2257,7 +2257,7 @@
     <row r="18" ht="16.5" customHeight="1" spans="2:18">
       <c r="B18" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43480</v>
+        <v>43539</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(_val_month_day!A25="","",_val_month_day!A25)</f>
@@ -2327,7 +2327,7 @@
     <row r="19" ht="16.5" customHeight="1" spans="2:18">
       <c r="B19" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43481</v>
+        <v>43540</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(_val_month_day!A26="","",_val_month_day!A26)</f>
@@ -2397,7 +2397,7 @@
     <row r="20" ht="16.5" customHeight="1" spans="2:18">
       <c r="B20" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43482</v>
+        <v>43541</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>IF(_val_month_day!A27="","",_val_month_day!A27)</f>
@@ -2467,7 +2467,7 @@
     <row r="21" ht="16.5" customHeight="1" spans="2:18">
       <c r="B21" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43483</v>
+        <v>43542</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>IF(_val_month_day!A28="","",_val_month_day!A28)</f>
@@ -2537,7 +2537,7 @@
     <row r="22" ht="16.5" customHeight="1" spans="2:18">
       <c r="B22" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43484</v>
+        <v>43543</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>IF(_val_month_day!A29="","",_val_month_day!A29)</f>
@@ -2607,7 +2607,7 @@
     <row r="23" ht="16.5" customHeight="1" spans="2:18">
       <c r="B23" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43485</v>
+        <v>43544</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>IF(_val_month_day!A30="","",_val_month_day!A30)</f>
@@ -2677,7 +2677,7 @@
     <row r="24" ht="16.5" customHeight="1" spans="2:18">
       <c r="B24" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43486</v>
+        <v>43545</v>
       </c>
       <c r="C24" s="11" t="str">
         <f>IF(_val_month_day!A31="","",_val_month_day!A31)</f>
@@ -2747,7 +2747,7 @@
     <row r="25" ht="16.5" customHeight="1" spans="2:18">
       <c r="B25" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43487</v>
+        <v>43546</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>IF(_val_month_day!A32="","",_val_month_day!A32)</f>
@@ -2817,7 +2817,7 @@
     <row r="26" ht="16.5" customHeight="1" spans="2:18">
       <c r="B26" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43488</v>
+        <v>43547</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>IF(_val_month_day!A33="","",_val_month_day!A33)</f>
@@ -2887,7 +2887,7 @@
     <row r="27" ht="16.5" customHeight="1" spans="2:18">
       <c r="B27" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43489</v>
+        <v>43548</v>
       </c>
       <c r="C27" s="11" t="str">
         <f>IF(_val_month_day!A34="","",_val_month_day!A34)</f>
@@ -2957,7 +2957,7 @@
     <row r="28" ht="16.5" customHeight="1" spans="2:18">
       <c r="B28" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43490</v>
+        <v>43549</v>
       </c>
       <c r="C28" s="11" t="str">
         <f>IF(_val_month_day!A35="","",_val_month_day!A35)</f>
@@ -3027,7 +3027,7 @@
     <row r="29" ht="16.5" customHeight="1" spans="2:18">
       <c r="B29" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43491</v>
+        <v>43550</v>
       </c>
       <c r="C29" s="11" t="str">
         <f>IF(_val_month_day!A36="","",_val_month_day!A36)</f>
@@ -3097,7 +3097,7 @@
     <row r="30" ht="16.5" customHeight="1" spans="2:18">
       <c r="B30" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43492</v>
+        <v>43551</v>
       </c>
       <c r="C30" s="11" t="str">
         <f>IF(_val_month_day!A37="","",_val_month_day!A37)</f>
@@ -3167,7 +3167,7 @@
     <row r="31" ht="16.5" customHeight="1" spans="2:18">
       <c r="B31" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43493</v>
+        <v>43552</v>
       </c>
       <c r="C31" s="11" t="str">
         <f>IF(_val_month_day!A38="","",_val_month_day!A38)</f>
@@ -3237,7 +3237,7 @@
     <row r="32" ht="16.5" customHeight="1" spans="2:18">
       <c r="B32" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43494</v>
+        <v>43553</v>
       </c>
       <c r="C32" s="11" t="str">
         <f>IF(_val_month_day!A39="","",_val_month_day!A39)</f>
@@ -3307,7 +3307,7 @@
     <row r="33" ht="16.5" customHeight="1" spans="2:18">
       <c r="B33" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43495</v>
+        <v>43554</v>
       </c>
       <c r="C33" s="11" t="str">
         <f>IF(_val_month_day!A40="","",_val_month_day!A40)</f>
@@ -3377,7 +3377,7 @@
     <row r="34" ht="16.5" customHeight="1" spans="2:18">
       <c r="B34" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="C34" s="11" t="str">
         <f>IF(_val_month_day!A41="","",_val_month_day!A41)</f>
@@ -3448,22 +3448,70 @@
       <c r="B35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
+      <c r="C35" s="11" t="str">
+        <f t="shared" ref="C35:R35" si="1">IF(COUNTBLANK(C4:C34)=31,"",SUM(C4:C34))</f>
+        <v/>
+      </c>
+      <c r="D35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/excel/finished/焦化/配煤-配煤量月报表.xlsx
+++ b/excel/finished/焦化/配煤-配煤量月报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="配煤-配煤量月报表" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -259,8 +259,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,14 +313,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="2"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -296,53 +351,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -358,17 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,14 +383,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -404,8 +404,146 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -416,92 +554,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -518,74 +572,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,11 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +633,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,28 +676,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,17 +700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,145 +716,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="B1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1277,7 +1277,7 @@
     <row r="4" ht="16.5" customHeight="1" spans="2:18">
       <c r="B4" s="10">
         <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1))</f>
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>IF(_val_month_day!A11="","",_val_month_day!A11)</f>
@@ -1347,7 +1347,7 @@
     <row r="5" ht="16.5" customHeight="1" spans="2:18">
       <c r="B5" s="10">
         <f ca="1" t="shared" ref="B5:B34" si="0">B4+1</f>
-        <v>43526</v>
+        <v>43587</v>
       </c>
       <c r="C5" s="11" t="str">
         <f>IF(_val_month_day!A12="","",_val_month_day!A12)</f>
@@ -1417,7 +1417,7 @@
     <row r="6" ht="16.5" customHeight="1" spans="2:18">
       <c r="B6" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43527</v>
+        <v>43588</v>
       </c>
       <c r="C6" s="11" t="str">
         <f>IF(_val_month_day!A13="","",_val_month_day!A13)</f>
@@ -1487,7 +1487,7 @@
     <row r="7" ht="16.5" customHeight="1" spans="2:18">
       <c r="B7" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43528</v>
+        <v>43589</v>
       </c>
       <c r="C7" s="11" t="str">
         <f>IF(_val_month_day!A14="","",_val_month_day!A14)</f>
@@ -1557,7 +1557,7 @@
     <row r="8" ht="16.5" customHeight="1" spans="2:18">
       <c r="B8" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43529</v>
+        <v>43590</v>
       </c>
       <c r="C8" s="11" t="str">
         <f>IF(_val_month_day!A15="","",_val_month_day!A15)</f>
@@ -1627,7 +1627,7 @@
     <row r="9" ht="16.5" customHeight="1" spans="2:18">
       <c r="B9" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43530</v>
+        <v>43591</v>
       </c>
       <c r="C9" s="11" t="str">
         <f>IF(_val_month_day!A16="","",_val_month_day!A16)</f>
@@ -1697,7 +1697,7 @@
     <row r="10" ht="16.5" customHeight="1" spans="2:18">
       <c r="B10" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43531</v>
+        <v>43592</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>IF(_val_month_day!A17="","",_val_month_day!A17)</f>
@@ -1767,7 +1767,7 @@
     <row r="11" ht="16.5" customHeight="1" spans="2:18">
       <c r="B11" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>IF(_val_month_day!A18="","",_val_month_day!A18)</f>
@@ -1837,7 +1837,7 @@
     <row r="12" ht="16.5" customHeight="1" spans="2:18">
       <c r="B12" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43533</v>
+        <v>43594</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>IF(_val_month_day!A19="","",_val_month_day!A19)</f>
@@ -1907,7 +1907,7 @@
     <row r="13" ht="16.5" customHeight="1" spans="2:18">
       <c r="B13" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43534</v>
+        <v>43595</v>
       </c>
       <c r="C13" s="11" t="str">
         <f>IF(_val_month_day!A20="","",_val_month_day!A20)</f>
@@ -1977,7 +1977,7 @@
     <row r="14" ht="16.5" customHeight="1" spans="2:18">
       <c r="B14" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43535</v>
+        <v>43596</v>
       </c>
       <c r="C14" s="11" t="str">
         <f>IF(_val_month_day!A21="","",_val_month_day!A21)</f>
@@ -2047,7 +2047,7 @@
     <row r="15" ht="16.5" customHeight="1" spans="2:18">
       <c r="B15" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43536</v>
+        <v>43597</v>
       </c>
       <c r="C15" s="11" t="str">
         <f>IF(_val_month_day!A22="","",_val_month_day!A22)</f>
@@ -2117,7 +2117,7 @@
     <row r="16" ht="16.5" customHeight="1" spans="2:18">
       <c r="B16" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43537</v>
+        <v>43598</v>
       </c>
       <c r="C16" s="11" t="str">
         <f>IF(_val_month_day!A23="","",_val_month_day!A23)</f>
@@ -2187,7 +2187,7 @@
     <row r="17" ht="16.5" customHeight="1" spans="2:18">
       <c r="B17" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43538</v>
+        <v>43599</v>
       </c>
       <c r="C17" s="11" t="str">
         <f>IF(_val_month_day!A24="","",_val_month_day!A24)</f>
@@ -2257,7 +2257,7 @@
     <row r="18" ht="16.5" customHeight="1" spans="2:18">
       <c r="B18" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43539</v>
+        <v>43600</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(_val_month_day!A25="","",_val_month_day!A25)</f>
@@ -2327,7 +2327,7 @@
     <row r="19" ht="16.5" customHeight="1" spans="2:18">
       <c r="B19" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43540</v>
+        <v>43601</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(_val_month_day!A26="","",_val_month_day!A26)</f>
@@ -2397,7 +2397,7 @@
     <row r="20" ht="16.5" customHeight="1" spans="2:18">
       <c r="B20" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43541</v>
+        <v>43602</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>IF(_val_month_day!A27="","",_val_month_day!A27)</f>
@@ -2467,7 +2467,7 @@
     <row r="21" ht="16.5" customHeight="1" spans="2:18">
       <c r="B21" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43542</v>
+        <v>43603</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>IF(_val_month_day!A28="","",_val_month_day!A28)</f>
@@ -2537,7 +2537,7 @@
     <row r="22" ht="16.5" customHeight="1" spans="2:18">
       <c r="B22" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43543</v>
+        <v>43604</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>IF(_val_month_day!A29="","",_val_month_day!A29)</f>
@@ -2607,7 +2607,7 @@
     <row r="23" ht="16.5" customHeight="1" spans="2:18">
       <c r="B23" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43544</v>
+        <v>43605</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>IF(_val_month_day!A30="","",_val_month_day!A30)</f>
@@ -2677,7 +2677,7 @@
     <row r="24" ht="16.5" customHeight="1" spans="2:18">
       <c r="B24" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43545</v>
+        <v>43606</v>
       </c>
       <c r="C24" s="11" t="str">
         <f>IF(_val_month_day!A31="","",_val_month_day!A31)</f>
@@ -2747,7 +2747,7 @@
     <row r="25" ht="16.5" customHeight="1" spans="2:18">
       <c r="B25" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43546</v>
+        <v>43607</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>IF(_val_month_day!A32="","",_val_month_day!A32)</f>
@@ -2817,7 +2817,7 @@
     <row r="26" ht="16.5" customHeight="1" spans="2:18">
       <c r="B26" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43547</v>
+        <v>43608</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>IF(_val_month_day!A33="","",_val_month_day!A33)</f>
@@ -2887,7 +2887,7 @@
     <row r="27" ht="16.5" customHeight="1" spans="2:18">
       <c r="B27" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43548</v>
+        <v>43609</v>
       </c>
       <c r="C27" s="11" t="str">
         <f>IF(_val_month_day!A34="","",_val_month_day!A34)</f>
@@ -2957,7 +2957,7 @@
     <row r="28" ht="16.5" customHeight="1" spans="2:18">
       <c r="B28" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43549</v>
+        <v>43610</v>
       </c>
       <c r="C28" s="11" t="str">
         <f>IF(_val_month_day!A35="","",_val_month_day!A35)</f>
@@ -3027,7 +3027,7 @@
     <row r="29" ht="16.5" customHeight="1" spans="2:18">
       <c r="B29" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43550</v>
+        <v>43611</v>
       </c>
       <c r="C29" s="11" t="str">
         <f>IF(_val_month_day!A36="","",_val_month_day!A36)</f>
@@ -3097,7 +3097,7 @@
     <row r="30" ht="16.5" customHeight="1" spans="2:18">
       <c r="B30" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43551</v>
+        <v>43612</v>
       </c>
       <c r="C30" s="11" t="str">
         <f>IF(_val_month_day!A37="","",_val_month_day!A37)</f>
@@ -3167,7 +3167,7 @@
     <row r="31" ht="16.5" customHeight="1" spans="2:18">
       <c r="B31" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43552</v>
+        <v>43613</v>
       </c>
       <c r="C31" s="11" t="str">
         <f>IF(_val_month_day!A38="","",_val_month_day!A38)</f>
@@ -3237,7 +3237,7 @@
     <row r="32" ht="16.5" customHeight="1" spans="2:18">
       <c r="B32" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43553</v>
+        <v>43614</v>
       </c>
       <c r="C32" s="11" t="str">
         <f>IF(_val_month_day!A39="","",_val_month_day!A39)</f>
@@ -3307,7 +3307,7 @@
     <row r="33" ht="16.5" customHeight="1" spans="2:18">
       <c r="B33" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43554</v>
+        <v>43615</v>
       </c>
       <c r="C33" s="11" t="str">
         <f>IF(_val_month_day!A40="","",_val_month_day!A40)</f>
@@ -3377,7 +3377,7 @@
     <row r="34" ht="16.5" customHeight="1" spans="2:18">
       <c r="B34" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="C34" s="11" t="str">
         <f>IF(_val_month_day!A41="","",_val_month_day!A41)</f>
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="11" t="str">
-        <f t="shared" ref="C35:R35" si="1">IF(COUNTBLANK(C4:C34)=31,"",SUM(C4:C34))</f>
+        <f t="shared" ref="C35:R35" si="1">IF(COUNTBLANK(C4:C34)&gt;30,"",SUM(C4:C34))</f>
         <v/>
       </c>
       <c r="D35" s="11" t="str">

--- a/excel/finished/焦化/配煤-配煤量月报表.xlsx
+++ b/excel/finished/焦化/配煤-配煤量月报表.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="配煤-配煤量月报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_name_month_day" sheetId="2" r:id="rId2"/>
-    <sheet name="_val_month_day" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="配煤-配煤量月报表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_name_month_day" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_val_month_day" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -196,197 +195,171 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="2"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <color indexed="4"/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="20"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color indexed="65"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color indexed="2"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="34">
@@ -394,24 +367,156 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor theme="2"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
@@ -422,14 +527,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
@@ -440,152 +545,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,45 +568,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,7 +605,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +634,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -710,179 +668,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="24" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="25" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -935,17 +908,296 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1152,2364 +1404,2362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:X35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.58333333333333" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="9.5833333333333304"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="22.5" spans="7:13">
-      <c r="G1" s="5" t="str">
+    <row customFormat="1" ht="19.5" r="1" s="1">
+      <c r="G1" s="2" t="str">
         <f>IF(_metadata!B7="","",_metadata!B7)</f>
         <v/>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="18.75" customHeight="1" spans="3:24">
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row customFormat="1" ht="18.75" customHeight="1" r="2" s="3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B3" s="9" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row ht="16.5" customHeight="1" r="3">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="8" t="str">
         <f>IF(_name_month_day!A1="","",_name_month_day!A1)</f>
         <v/>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="8" t="str">
         <f>IF(_name_month_day!B1="","",_name_month_day!B1)</f>
         <v/>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f>IF(_name_month_day!C1="","",_name_month_day!C1)</f>
         <v/>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="8" t="str">
         <f>IF(_name_month_day!D1="","",_name_month_day!D1)</f>
         <v/>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="8" t="str">
         <f>IF(_name_month_day!E1="","",_name_month_day!E1)</f>
         <v/>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="8" t="str">
         <f>IF(_name_month_day!F1="","",_name_month_day!F1)</f>
         <v/>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="8" t="str">
         <f>IF(_name_month_day!G1="","",_name_month_day!G1)</f>
         <v/>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="8" t="str">
         <f>IF(_name_month_day!H1="","",_name_month_day!H1)</f>
         <v/>
       </c>
-      <c r="K3" s="9" t="str">
+      <c r="K3" s="8" t="str">
         <f>IF(_name_month_day!I1="","",_name_month_day!I1)</f>
         <v/>
       </c>
-      <c r="L3" s="9" t="str">
+      <c r="L3" s="8" t="str">
         <f>IF(_name_month_day!J1="","",_name_month_day!J1)</f>
         <v/>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="8" t="str">
         <f>IF(_name_month_day!K1="","",_name_month_day!K1)</f>
         <v/>
       </c>
-      <c r="N3" s="9" t="str">
+      <c r="N3" s="8" t="str">
         <f>IF(_name_month_day!L1="","",_name_month_day!L1)</f>
         <v/>
       </c>
-      <c r="O3" s="9" t="str">
+      <c r="O3" s="8" t="str">
         <f>IF(_name_month_day!M1="","",_name_month_day!M1)</f>
         <v/>
       </c>
-      <c r="P3" s="9" t="str">
+      <c r="P3" s="8" t="str">
         <f>IF(_name_month_day!N1="","",_name_month_day!N1)</f>
         <v/>
       </c>
-      <c r="Q3" s="9" t="str">
+      <c r="Q3" s="8" t="str">
         <f>IF(_name_month_day!O1="","",_name_month_day!O1)</f>
         <v/>
       </c>
-      <c r="R3" s="9" t="str">
+      <c r="R3" s="8" t="str">
         <f>IF(_name_month_day!P1="","",_name_month_day!P1)</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B4" s="10">
-        <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1))</f>
-        <v>43586</v>
-      </c>
-      <c r="C4" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="4">
+      <c r="B4" s="9">
+        <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1)+1)</f>
+        <v>43647</v>
+      </c>
+      <c r="C4" s="10" t="str">
         <f>IF(_val_month_day!A11="","",_val_month_day!A11)</f>
         <v/>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(_val_month_day!B11="","",_val_month_day!B11)</f>
         <v/>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f>IF(_val_month_day!C11="","",_val_month_day!C11)</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <f>IF(_val_month_day!D11="","",_val_month_day!D11)</f>
         <v/>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="10" t="str">
         <f>IF(_val_month_day!E11="","",_val_month_day!E11)</f>
         <v/>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="10" t="str">
         <f>IF(_val_month_day!F11="","",_val_month_day!F11)</f>
         <v/>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="I4" s="10" t="str">
         <f>IF(_val_month_day!G11="","",_val_month_day!G11)</f>
         <v/>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="10" t="str">
         <f>IF(_val_month_day!H11="","",_val_month_day!H11)</f>
         <v/>
       </c>
-      <c r="K4" s="11" t="str">
+      <c r="K4" s="10" t="str">
         <f>IF(_val_month_day!I11="","",_val_month_day!I11)</f>
         <v/>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="10" t="str">
         <f>IF(_val_month_day!J11="","",_val_month_day!J11)</f>
         <v/>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="10" t="str">
         <f>IF(_val_month_day!K11="","",_val_month_day!K11)</f>
         <v/>
       </c>
-      <c r="N4" s="11" t="str">
+      <c r="N4" s="10" t="str">
         <f>IF(_val_month_day!L11="","",_val_month_day!L11)</f>
         <v/>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="O4" s="10" t="str">
         <f>IF(_val_month_day!M11="","",_val_month_day!M11)</f>
         <v/>
       </c>
-      <c r="P4" s="11" t="str">
+      <c r="P4" s="10" t="str">
         <f>IF(_val_month_day!N11="","",_val_month_day!N11)</f>
         <v/>
       </c>
-      <c r="Q4" s="11" t="str">
+      <c r="Q4" s="10" t="str">
         <f>IF(_val_month_day!O11="","",_val_month_day!O11)</f>
         <v/>
       </c>
-      <c r="R4" s="11" t="str">
+      <c r="R4" s="10" t="str">
         <f>IF(_val_month_day!P11="","",_val_month_day!P11)</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B5" s="10">
-        <f ca="1" t="shared" ref="B5:B34" si="0">B4+1</f>
-        <v>43587</v>
-      </c>
-      <c r="C5" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="5">
+      <c r="B5" s="9">
+        <f ca="1">B4+1</f>
+        <v>43648</v>
+      </c>
+      <c r="C5" s="10" t="str">
         <f>IF(_val_month_day!A12="","",_val_month_day!A12)</f>
         <v/>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f>IF(_val_month_day!B12="","",_val_month_day!B12)</f>
         <v/>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="10" t="str">
         <f>IF(_val_month_day!C12="","",_val_month_day!C12)</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="10" t="str">
         <f>IF(_val_month_day!D12="","",_val_month_day!D12)</f>
         <v/>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="10" t="str">
         <f>IF(_val_month_day!E12="","",_val_month_day!E12)</f>
         <v/>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" s="10" t="str">
         <f>IF(_val_month_day!F12="","",_val_month_day!F12)</f>
         <v/>
       </c>
-      <c r="I5" s="11" t="str">
+      <c r="I5" s="10" t="str">
         <f>IF(_val_month_day!G12="","",_val_month_day!G12)</f>
         <v/>
       </c>
-      <c r="J5" s="11" t="str">
+      <c r="J5" s="10" t="str">
         <f>IF(_val_month_day!H12="","",_val_month_day!H12)</f>
         <v/>
       </c>
-      <c r="K5" s="11" t="str">
+      <c r="K5" s="10" t="str">
         <f>IF(_val_month_day!I12="","",_val_month_day!I12)</f>
         <v/>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="10" t="str">
         <f>IF(_val_month_day!J12="","",_val_month_day!J12)</f>
         <v/>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="10" t="str">
         <f>IF(_val_month_day!K12="","",_val_month_day!K12)</f>
         <v/>
       </c>
-      <c r="N5" s="11" t="str">
+      <c r="N5" s="10" t="str">
         <f>IF(_val_month_day!L12="","",_val_month_day!L12)</f>
         <v/>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="10" t="str">
         <f>IF(_val_month_day!M12="","",_val_month_day!M12)</f>
         <v/>
       </c>
-      <c r="P5" s="11" t="str">
+      <c r="P5" s="10" t="str">
         <f>IF(_val_month_day!N12="","",_val_month_day!N12)</f>
         <v/>
       </c>
-      <c r="Q5" s="11" t="str">
+      <c r="Q5" s="10" t="str">
         <f>IF(_val_month_day!O12="","",_val_month_day!O12)</f>
         <v/>
       </c>
-      <c r="R5" s="11" t="str">
+      <c r="R5" s="10" t="str">
         <f>IF(_val_month_day!P12="","",_val_month_day!P12)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43588</v>
-      </c>
-      <c r="C6" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="6">
+      <c r="B6" s="9">
+        <f ca="1">B5+1</f>
+        <v>43649</v>
+      </c>
+      <c r="C6" s="10" t="str">
         <f>IF(_val_month_day!A13="","",_val_month_day!A13)</f>
         <v/>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f>IF(_val_month_day!B13="","",_val_month_day!B13)</f>
         <v/>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="10" t="str">
         <f>IF(_val_month_day!C13="","",_val_month_day!C13)</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="10" t="str">
         <f>IF(_val_month_day!D13="","",_val_month_day!D13)</f>
         <v/>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="10" t="str">
         <f>IF(_val_month_day!E13="","",_val_month_day!E13)</f>
         <v/>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="10" t="str">
         <f>IF(_val_month_day!F13="","",_val_month_day!F13)</f>
         <v/>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="10" t="str">
         <f>IF(_val_month_day!G13="","",_val_month_day!G13)</f>
         <v/>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="10" t="str">
         <f>IF(_val_month_day!H13="","",_val_month_day!H13)</f>
         <v/>
       </c>
-      <c r="K6" s="11" t="str">
+      <c r="K6" s="10" t="str">
         <f>IF(_val_month_day!I13="","",_val_month_day!I13)</f>
         <v/>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="10" t="str">
         <f>IF(_val_month_day!J13="","",_val_month_day!J13)</f>
         <v/>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="10" t="str">
         <f>IF(_val_month_day!K13="","",_val_month_day!K13)</f>
         <v/>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="10" t="str">
         <f>IF(_val_month_day!L13="","",_val_month_day!L13)</f>
         <v/>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="10" t="str">
         <f>IF(_val_month_day!M13="","",_val_month_day!M13)</f>
         <v/>
       </c>
-      <c r="P6" s="11" t="str">
+      <c r="P6" s="10" t="str">
         <f>IF(_val_month_day!N13="","",_val_month_day!N13)</f>
         <v/>
       </c>
-      <c r="Q6" s="11" t="str">
+      <c r="Q6" s="10" t="str">
         <f>IF(_val_month_day!O13="","",_val_month_day!O13)</f>
         <v/>
       </c>
-      <c r="R6" s="11" t="str">
+      <c r="R6" s="10" t="str">
         <f>IF(_val_month_day!P13="","",_val_month_day!P13)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B7" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43589</v>
-      </c>
-      <c r="C7" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="7">
+      <c r="B7" s="9">
+        <f ca="1">B6+1</f>
+        <v>43650</v>
+      </c>
+      <c r="C7" s="10" t="str">
         <f>IF(_val_month_day!A14="","",_val_month_day!A14)</f>
         <v/>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f>IF(_val_month_day!B14="","",_val_month_day!B14)</f>
         <v/>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="10" t="str">
         <f>IF(_val_month_day!C14="","",_val_month_day!C14)</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="10" t="str">
         <f>IF(_val_month_day!D14="","",_val_month_day!D14)</f>
         <v/>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="10" t="str">
         <f>IF(_val_month_day!E14="","",_val_month_day!E14)</f>
         <v/>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="10" t="str">
         <f>IF(_val_month_day!F14="","",_val_month_day!F14)</f>
         <v/>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="10" t="str">
         <f>IF(_val_month_day!G14="","",_val_month_day!G14)</f>
         <v/>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="10" t="str">
         <f>IF(_val_month_day!H14="","",_val_month_day!H14)</f>
         <v/>
       </c>
-      <c r="K7" s="11" t="str">
+      <c r="K7" s="10" t="str">
         <f>IF(_val_month_day!I14="","",_val_month_day!I14)</f>
         <v/>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="10" t="str">
         <f>IF(_val_month_day!J14="","",_val_month_day!J14)</f>
         <v/>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="10" t="str">
         <f>IF(_val_month_day!K14="","",_val_month_day!K14)</f>
         <v/>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="10" t="str">
         <f>IF(_val_month_day!L14="","",_val_month_day!L14)</f>
         <v/>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="10" t="str">
         <f>IF(_val_month_day!M14="","",_val_month_day!M14)</f>
         <v/>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="10" t="str">
         <f>IF(_val_month_day!N14="","",_val_month_day!N14)</f>
         <v/>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="10" t="str">
         <f>IF(_val_month_day!O14="","",_val_month_day!O14)</f>
         <v/>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="10" t="str">
         <f>IF(_val_month_day!P14="","",_val_month_day!P14)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B8" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43590</v>
-      </c>
-      <c r="C8" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="8">
+      <c r="B8" s="9">
+        <f ca="1">B7+1</f>
+        <v>43651</v>
+      </c>
+      <c r="C8" s="10" t="str">
         <f>IF(_val_month_day!A15="","",_val_month_day!A15)</f>
         <v/>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="10" t="str">
         <f>IF(_val_month_day!B15="","",_val_month_day!B15)</f>
         <v/>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="10" t="str">
         <f>IF(_val_month_day!C15="","",_val_month_day!C15)</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="10" t="str">
         <f>IF(_val_month_day!D15="","",_val_month_day!D15)</f>
         <v/>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="10" t="str">
         <f>IF(_val_month_day!E15="","",_val_month_day!E15)</f>
         <v/>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="10" t="str">
         <f>IF(_val_month_day!F15="","",_val_month_day!F15)</f>
         <v/>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="10" t="str">
         <f>IF(_val_month_day!G15="","",_val_month_day!G15)</f>
         <v/>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="10" t="str">
         <f>IF(_val_month_day!H15="","",_val_month_day!H15)</f>
         <v/>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K8" s="10" t="str">
         <f>IF(_val_month_day!I15="","",_val_month_day!I15)</f>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="10" t="str">
         <f>IF(_val_month_day!J15="","",_val_month_day!J15)</f>
         <v/>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="10" t="str">
         <f>IF(_val_month_day!K15="","",_val_month_day!K15)</f>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="10" t="str">
         <f>IF(_val_month_day!L15="","",_val_month_day!L15)</f>
         <v/>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="10" t="str">
         <f>IF(_val_month_day!M15="","",_val_month_day!M15)</f>
         <v/>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="P8" s="10" t="str">
         <f>IF(_val_month_day!N15="","",_val_month_day!N15)</f>
         <v/>
       </c>
-      <c r="Q8" s="11" t="str">
+      <c r="Q8" s="10" t="str">
         <f>IF(_val_month_day!O15="","",_val_month_day!O15)</f>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="R8" s="10" t="str">
         <f>IF(_val_month_day!P15="","",_val_month_day!P15)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B9" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43591</v>
-      </c>
-      <c r="C9" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="9">
+      <c r="B9" s="9">
+        <f ca="1">B8+1</f>
+        <v>43652</v>
+      </c>
+      <c r="C9" s="10" t="str">
         <f>IF(_val_month_day!A16="","",_val_month_day!A16)</f>
         <v/>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="10" t="str">
         <f>IF(_val_month_day!B16="","",_val_month_day!B16)</f>
         <v/>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="10" t="str">
         <f>IF(_val_month_day!C16="","",_val_month_day!C16)</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="10" t="str">
         <f>IF(_val_month_day!D16="","",_val_month_day!D16)</f>
         <v/>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="10" t="str">
         <f>IF(_val_month_day!E16="","",_val_month_day!E16)</f>
         <v/>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="10" t="str">
         <f>IF(_val_month_day!F16="","",_val_month_day!F16)</f>
         <v/>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="10" t="str">
         <f>IF(_val_month_day!G16="","",_val_month_day!G16)</f>
         <v/>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="10" t="str">
         <f>IF(_val_month_day!H16="","",_val_month_day!H16)</f>
         <v/>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="10" t="str">
         <f>IF(_val_month_day!I16="","",_val_month_day!I16)</f>
         <v/>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="10" t="str">
         <f>IF(_val_month_day!J16="","",_val_month_day!J16)</f>
         <v/>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="10" t="str">
         <f>IF(_val_month_day!K16="","",_val_month_day!K16)</f>
         <v/>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="N9" s="10" t="str">
         <f>IF(_val_month_day!L16="","",_val_month_day!L16)</f>
         <v/>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="10" t="str">
         <f>IF(_val_month_day!M16="","",_val_month_day!M16)</f>
         <v/>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="P9" s="10" t="str">
         <f>IF(_val_month_day!N16="","",_val_month_day!N16)</f>
         <v/>
       </c>
-      <c r="Q9" s="11" t="str">
+      <c r="Q9" s="10" t="str">
         <f>IF(_val_month_day!O16="","",_val_month_day!O16)</f>
         <v/>
       </c>
-      <c r="R9" s="11" t="str">
+      <c r="R9" s="10" t="str">
         <f>IF(_val_month_day!P16="","",_val_month_day!P16)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B10" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43592</v>
-      </c>
-      <c r="C10" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="10">
+      <c r="B10" s="9">
+        <f ca="1">B9+1</f>
+        <v>43653</v>
+      </c>
+      <c r="C10" s="10" t="str">
         <f>IF(_val_month_day!A17="","",_val_month_day!A17)</f>
         <v/>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="10" t="str">
         <f>IF(_val_month_day!B17="","",_val_month_day!B17)</f>
         <v/>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="10" t="str">
         <f>IF(_val_month_day!C17="","",_val_month_day!C17)</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="10" t="str">
         <f>IF(_val_month_day!D17="","",_val_month_day!D17)</f>
         <v/>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="10" t="str">
         <f>IF(_val_month_day!E17="","",_val_month_day!E17)</f>
         <v/>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="10" t="str">
         <f>IF(_val_month_day!F17="","",_val_month_day!F17)</f>
         <v/>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="10" t="str">
         <f>IF(_val_month_day!G17="","",_val_month_day!G17)</f>
         <v/>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="J10" s="10" t="str">
         <f>IF(_val_month_day!H17="","",_val_month_day!H17)</f>
         <v/>
       </c>
-      <c r="K10" s="11" t="str">
+      <c r="K10" s="10" t="str">
         <f>IF(_val_month_day!I17="","",_val_month_day!I17)</f>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="10" t="str">
         <f>IF(_val_month_day!J17="","",_val_month_day!J17)</f>
         <v/>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="10" t="str">
         <f>IF(_val_month_day!K17="","",_val_month_day!K17)</f>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="10" t="str">
         <f>IF(_val_month_day!L17="","",_val_month_day!L17)</f>
         <v/>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="10" t="str">
         <f>IF(_val_month_day!M17="","",_val_month_day!M17)</f>
         <v/>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="10" t="str">
         <f>IF(_val_month_day!N17="","",_val_month_day!N17)</f>
         <v/>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="10" t="str">
         <f>IF(_val_month_day!O17="","",_val_month_day!O17)</f>
         <v/>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="10" t="str">
         <f>IF(_val_month_day!P17="","",_val_month_day!P17)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B11" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43593</v>
-      </c>
-      <c r="C11" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="11">
+      <c r="B11" s="9">
+        <f ca="1">B10+1</f>
+        <v>43654</v>
+      </c>
+      <c r="C11" s="10" t="str">
         <f>IF(_val_month_day!A18="","",_val_month_day!A18)</f>
         <v/>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="10" t="str">
         <f>IF(_val_month_day!B18="","",_val_month_day!B18)</f>
         <v/>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="10" t="str">
         <f>IF(_val_month_day!C18="","",_val_month_day!C18)</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="10" t="str">
         <f>IF(_val_month_day!D18="","",_val_month_day!D18)</f>
         <v/>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="10" t="str">
         <f>IF(_val_month_day!E18="","",_val_month_day!E18)</f>
         <v/>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="10" t="str">
         <f>IF(_val_month_day!F18="","",_val_month_day!F18)</f>
         <v/>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="10" t="str">
         <f>IF(_val_month_day!G18="","",_val_month_day!G18)</f>
         <v/>
       </c>
-      <c r="J11" s="11" t="str">
+      <c r="J11" s="10" t="str">
         <f>IF(_val_month_day!H18="","",_val_month_day!H18)</f>
         <v/>
       </c>
-      <c r="K11" s="11" t="str">
+      <c r="K11" s="10" t="str">
         <f>IF(_val_month_day!I18="","",_val_month_day!I18)</f>
         <v/>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="10" t="str">
         <f>IF(_val_month_day!J18="","",_val_month_day!J18)</f>
         <v/>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="10" t="str">
         <f>IF(_val_month_day!K18="","",_val_month_day!K18)</f>
         <v/>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="N11" s="10" t="str">
         <f>IF(_val_month_day!L18="","",_val_month_day!L18)</f>
         <v/>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="10" t="str">
         <f>IF(_val_month_day!M18="","",_val_month_day!M18)</f>
         <v/>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="P11" s="10" t="str">
         <f>IF(_val_month_day!N18="","",_val_month_day!N18)</f>
         <v/>
       </c>
-      <c r="Q11" s="11" t="str">
+      <c r="Q11" s="10" t="str">
         <f>IF(_val_month_day!O18="","",_val_month_day!O18)</f>
         <v/>
       </c>
-      <c r="R11" s="11" t="str">
+      <c r="R11" s="10" t="str">
         <f>IF(_val_month_day!P18="","",_val_month_day!P18)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B12" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43594</v>
-      </c>
-      <c r="C12" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="12">
+      <c r="B12" s="9">
+        <f ca="1">B11+1</f>
+        <v>43655</v>
+      </c>
+      <c r="C12" s="10" t="str">
         <f>IF(_val_month_day!A19="","",_val_month_day!A19)</f>
         <v/>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="10" t="str">
         <f>IF(_val_month_day!B19="","",_val_month_day!B19)</f>
         <v/>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="10" t="str">
         <f>IF(_val_month_day!C19="","",_val_month_day!C19)</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="10" t="str">
         <f>IF(_val_month_day!D19="","",_val_month_day!D19)</f>
         <v/>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="10" t="str">
         <f>IF(_val_month_day!E19="","",_val_month_day!E19)</f>
         <v/>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="10" t="str">
         <f>IF(_val_month_day!F19="","",_val_month_day!F19)</f>
         <v/>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="10" t="str">
         <f>IF(_val_month_day!G19="","",_val_month_day!G19)</f>
         <v/>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="10" t="str">
         <f>IF(_val_month_day!H19="","",_val_month_day!H19)</f>
         <v/>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="10" t="str">
         <f>IF(_val_month_day!I19="","",_val_month_day!I19)</f>
         <v/>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="10" t="str">
         <f>IF(_val_month_day!J19="","",_val_month_day!J19)</f>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="10" t="str">
         <f>IF(_val_month_day!K19="","",_val_month_day!K19)</f>
         <v/>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N12" s="10" t="str">
         <f>IF(_val_month_day!L19="","",_val_month_day!L19)</f>
         <v/>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="O12" s="10" t="str">
         <f>IF(_val_month_day!M19="","",_val_month_day!M19)</f>
         <v/>
       </c>
-      <c r="P12" s="11" t="str">
+      <c r="P12" s="10" t="str">
         <f>IF(_val_month_day!N19="","",_val_month_day!N19)</f>
         <v/>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="Q12" s="10" t="str">
         <f>IF(_val_month_day!O19="","",_val_month_day!O19)</f>
         <v/>
       </c>
-      <c r="R12" s="11" t="str">
+      <c r="R12" s="10" t="str">
         <f>IF(_val_month_day!P19="","",_val_month_day!P19)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B13" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43595</v>
-      </c>
-      <c r="C13" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="13">
+      <c r="B13" s="9">
+        <f ca="1">B12+1</f>
+        <v>43656</v>
+      </c>
+      <c r="C13" s="10" t="str">
         <f>IF(_val_month_day!A20="","",_val_month_day!A20)</f>
         <v/>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="10" t="str">
         <f>IF(_val_month_day!B20="","",_val_month_day!B20)</f>
         <v/>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="10" t="str">
         <f>IF(_val_month_day!C20="","",_val_month_day!C20)</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="10" t="str">
         <f>IF(_val_month_day!D20="","",_val_month_day!D20)</f>
         <v/>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="10" t="str">
         <f>IF(_val_month_day!E20="","",_val_month_day!E20)</f>
         <v/>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="10" t="str">
         <f>IF(_val_month_day!F20="","",_val_month_day!F20)</f>
         <v/>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="10" t="str">
         <f>IF(_val_month_day!G20="","",_val_month_day!G20)</f>
         <v/>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J13" s="10" t="str">
         <f>IF(_val_month_day!H20="","",_val_month_day!H20)</f>
         <v/>
       </c>
-      <c r="K13" s="11" t="str">
+      <c r="K13" s="10" t="str">
         <f>IF(_val_month_day!I20="","",_val_month_day!I20)</f>
         <v/>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="10" t="str">
         <f>IF(_val_month_day!J20="","",_val_month_day!J20)</f>
         <v/>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="10" t="str">
         <f>IF(_val_month_day!K20="","",_val_month_day!K20)</f>
         <v/>
       </c>
-      <c r="N13" s="11" t="str">
+      <c r="N13" s="10" t="str">
         <f>IF(_val_month_day!L20="","",_val_month_day!L20)</f>
         <v/>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="10" t="str">
         <f>IF(_val_month_day!M20="","",_val_month_day!M20)</f>
         <v/>
       </c>
-      <c r="P13" s="11" t="str">
+      <c r="P13" s="10" t="str">
         <f>IF(_val_month_day!N20="","",_val_month_day!N20)</f>
         <v/>
       </c>
-      <c r="Q13" s="11" t="str">
+      <c r="Q13" s="10" t="str">
         <f>IF(_val_month_day!O20="","",_val_month_day!O20)</f>
         <v/>
       </c>
-      <c r="R13" s="11" t="str">
+      <c r="R13" s="10" t="str">
         <f>IF(_val_month_day!P20="","",_val_month_day!P20)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B14" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43596</v>
-      </c>
-      <c r="C14" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="14">
+      <c r="B14" s="9">
+        <f ca="1">B13+1</f>
+        <v>43657</v>
+      </c>
+      <c r="C14" s="10" t="str">
         <f>IF(_val_month_day!A21="","",_val_month_day!A21)</f>
         <v/>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f>IF(_val_month_day!B21="","",_val_month_day!B21)</f>
         <v/>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="10" t="str">
         <f>IF(_val_month_day!C21="","",_val_month_day!C21)</f>
         <v/>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="10" t="str">
         <f>IF(_val_month_day!D21="","",_val_month_day!D21)</f>
         <v/>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="10" t="str">
         <f>IF(_val_month_day!E21="","",_val_month_day!E21)</f>
         <v/>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="10" t="str">
         <f>IF(_val_month_day!F21="","",_val_month_day!F21)</f>
         <v/>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="I14" s="10" t="str">
         <f>IF(_val_month_day!G21="","",_val_month_day!G21)</f>
         <v/>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="10" t="str">
         <f>IF(_val_month_day!H21="","",_val_month_day!H21)</f>
         <v/>
       </c>
-      <c r="K14" s="11" t="str">
+      <c r="K14" s="10" t="str">
         <f>IF(_val_month_day!I21="","",_val_month_day!I21)</f>
         <v/>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="10" t="str">
         <f>IF(_val_month_day!J21="","",_val_month_day!J21)</f>
         <v/>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="10" t="str">
         <f>IF(_val_month_day!K21="","",_val_month_day!K21)</f>
         <v/>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="10" t="str">
         <f>IF(_val_month_day!L21="","",_val_month_day!L21)</f>
         <v/>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="10" t="str">
         <f>IF(_val_month_day!M21="","",_val_month_day!M21)</f>
         <v/>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="P14" s="10" t="str">
         <f>IF(_val_month_day!N21="","",_val_month_day!N21)</f>
         <v/>
       </c>
-      <c r="Q14" s="11" t="str">
+      <c r="Q14" s="10" t="str">
         <f>IF(_val_month_day!O21="","",_val_month_day!O21)</f>
         <v/>
       </c>
-      <c r="R14" s="11" t="str">
+      <c r="R14" s="10" t="str">
         <f>IF(_val_month_day!P21="","",_val_month_day!P21)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B15" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43597</v>
-      </c>
-      <c r="C15" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="15">
+      <c r="B15" s="9">
+        <f ca="1">B14+1</f>
+        <v>43658</v>
+      </c>
+      <c r="C15" s="10" t="str">
         <f>IF(_val_month_day!A22="","",_val_month_day!A22)</f>
         <v/>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="10" t="str">
         <f>IF(_val_month_day!B22="","",_val_month_day!B22)</f>
         <v/>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="10" t="str">
         <f>IF(_val_month_day!C22="","",_val_month_day!C22)</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="10" t="str">
         <f>IF(_val_month_day!D22="","",_val_month_day!D22)</f>
         <v/>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="10" t="str">
         <f>IF(_val_month_day!E22="","",_val_month_day!E22)</f>
         <v/>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="10" t="str">
         <f>IF(_val_month_day!F22="","",_val_month_day!F22)</f>
         <v/>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="10" t="str">
         <f>IF(_val_month_day!G22="","",_val_month_day!G22)</f>
         <v/>
       </c>
-      <c r="J15" s="11" t="str">
+      <c r="J15" s="10" t="str">
         <f>IF(_val_month_day!H22="","",_val_month_day!H22)</f>
         <v/>
       </c>
-      <c r="K15" s="11" t="str">
+      <c r="K15" s="10" t="str">
         <f>IF(_val_month_day!I22="","",_val_month_day!I22)</f>
         <v/>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="10" t="str">
         <f>IF(_val_month_day!J22="","",_val_month_day!J22)</f>
         <v/>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="10" t="str">
         <f>IF(_val_month_day!K22="","",_val_month_day!K22)</f>
         <v/>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="10" t="str">
         <f>IF(_val_month_day!L22="","",_val_month_day!L22)</f>
         <v/>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="10" t="str">
         <f>IF(_val_month_day!M22="","",_val_month_day!M22)</f>
         <v/>
       </c>
-      <c r="P15" s="11" t="str">
+      <c r="P15" s="10" t="str">
         <f>IF(_val_month_day!N22="","",_val_month_day!N22)</f>
         <v/>
       </c>
-      <c r="Q15" s="11" t="str">
+      <c r="Q15" s="10" t="str">
         <f>IF(_val_month_day!O22="","",_val_month_day!O22)</f>
         <v/>
       </c>
-      <c r="R15" s="11" t="str">
+      <c r="R15" s="10" t="str">
         <f>IF(_val_month_day!P22="","",_val_month_day!P22)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B16" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43598</v>
-      </c>
-      <c r="C16" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="16">
+      <c r="B16" s="9">
+        <f ca="1">B15+1</f>
+        <v>43659</v>
+      </c>
+      <c r="C16" s="10" t="str">
         <f>IF(_val_month_day!A23="","",_val_month_day!A23)</f>
         <v/>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="10" t="str">
         <f>IF(_val_month_day!B23="","",_val_month_day!B23)</f>
         <v/>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="10" t="str">
         <f>IF(_val_month_day!C23="","",_val_month_day!C23)</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="str">
+      <c r="F16" s="10" t="str">
         <f>IF(_val_month_day!D23="","",_val_month_day!D23)</f>
         <v/>
       </c>
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="10" t="str">
         <f>IF(_val_month_day!E23="","",_val_month_day!E23)</f>
         <v/>
       </c>
-      <c r="H16" s="11" t="str">
+      <c r="H16" s="10" t="str">
         <f>IF(_val_month_day!F23="","",_val_month_day!F23)</f>
         <v/>
       </c>
-      <c r="I16" s="11" t="str">
+      <c r="I16" s="10" t="str">
         <f>IF(_val_month_day!G23="","",_val_month_day!G23)</f>
         <v/>
       </c>
-      <c r="J16" s="11" t="str">
+      <c r="J16" s="10" t="str">
         <f>IF(_val_month_day!H23="","",_val_month_day!H23)</f>
         <v/>
       </c>
-      <c r="K16" s="11" t="str">
+      <c r="K16" s="10" t="str">
         <f>IF(_val_month_day!I23="","",_val_month_day!I23)</f>
         <v/>
       </c>
-      <c r="L16" s="11" t="str">
+      <c r="L16" s="10" t="str">
         <f>IF(_val_month_day!J23="","",_val_month_day!J23)</f>
         <v/>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="10" t="str">
         <f>IF(_val_month_day!K23="","",_val_month_day!K23)</f>
         <v/>
       </c>
-      <c r="N16" s="11" t="str">
+      <c r="N16" s="10" t="str">
         <f>IF(_val_month_day!L23="","",_val_month_day!L23)</f>
         <v/>
       </c>
-      <c r="O16" s="11" t="str">
+      <c r="O16" s="10" t="str">
         <f>IF(_val_month_day!M23="","",_val_month_day!M23)</f>
         <v/>
       </c>
-      <c r="P16" s="11" t="str">
+      <c r="P16" s="10" t="str">
         <f>IF(_val_month_day!N23="","",_val_month_day!N23)</f>
         <v/>
       </c>
-      <c r="Q16" s="11" t="str">
+      <c r="Q16" s="10" t="str">
         <f>IF(_val_month_day!O23="","",_val_month_day!O23)</f>
         <v/>
       </c>
-      <c r="R16" s="11" t="str">
+      <c r="R16" s="10" t="str">
         <f>IF(_val_month_day!P23="","",_val_month_day!P23)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B17" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43599</v>
-      </c>
-      <c r="C17" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="17">
+      <c r="B17" s="9">
+        <f ca="1">B16+1</f>
+        <v>43660</v>
+      </c>
+      <c r="C17" s="10" t="str">
         <f>IF(_val_month_day!A24="","",_val_month_day!A24)</f>
         <v/>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="10" t="str">
         <f>IF(_val_month_day!B24="","",_val_month_day!B24)</f>
         <v/>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="10" t="str">
         <f>IF(_val_month_day!C24="","",_val_month_day!C24)</f>
         <v/>
       </c>
-      <c r="F17" s="11" t="str">
+      <c r="F17" s="10" t="str">
         <f>IF(_val_month_day!D24="","",_val_month_day!D24)</f>
         <v/>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="10" t="str">
         <f>IF(_val_month_day!E24="","",_val_month_day!E24)</f>
         <v/>
       </c>
-      <c r="H17" s="11" t="str">
+      <c r="H17" s="10" t="str">
         <f>IF(_val_month_day!F24="","",_val_month_day!F24)</f>
         <v/>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="I17" s="10" t="str">
         <f>IF(_val_month_day!G24="","",_val_month_day!G24)</f>
         <v/>
       </c>
-      <c r="J17" s="11" t="str">
+      <c r="J17" s="10" t="str">
         <f>IF(_val_month_day!H24="","",_val_month_day!H24)</f>
         <v/>
       </c>
-      <c r="K17" s="11" t="str">
+      <c r="K17" s="10" t="str">
         <f>IF(_val_month_day!I24="","",_val_month_day!I24)</f>
         <v/>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="10" t="str">
         <f>IF(_val_month_day!J24="","",_val_month_day!J24)</f>
         <v/>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="10" t="str">
         <f>IF(_val_month_day!K24="","",_val_month_day!K24)</f>
         <v/>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="N17" s="10" t="str">
         <f>IF(_val_month_day!L24="","",_val_month_day!L24)</f>
         <v/>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="10" t="str">
         <f>IF(_val_month_day!M24="","",_val_month_day!M24)</f>
         <v/>
       </c>
-      <c r="P17" s="11" t="str">
+      <c r="P17" s="10" t="str">
         <f>IF(_val_month_day!N24="","",_val_month_day!N24)</f>
         <v/>
       </c>
-      <c r="Q17" s="11" t="str">
+      <c r="Q17" s="10" t="str">
         <f>IF(_val_month_day!O24="","",_val_month_day!O24)</f>
         <v/>
       </c>
-      <c r="R17" s="11" t="str">
+      <c r="R17" s="10" t="str">
         <f>IF(_val_month_day!P24="","",_val_month_day!P24)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B18" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43600</v>
-      </c>
-      <c r="C18" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="18">
+      <c r="B18" s="9">
+        <f ca="1">B17+1</f>
+        <v>43661</v>
+      </c>
+      <c r="C18" s="10" t="str">
         <f>IF(_val_month_day!A25="","",_val_month_day!A25)</f>
         <v/>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="10" t="str">
         <f>IF(_val_month_day!B25="","",_val_month_day!B25)</f>
         <v/>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="10" t="str">
         <f>IF(_val_month_day!C25="","",_val_month_day!C25)</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="str">
+      <c r="F18" s="10" t="str">
         <f>IF(_val_month_day!D25="","",_val_month_day!D25)</f>
         <v/>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="10" t="str">
         <f>IF(_val_month_day!E25="","",_val_month_day!E25)</f>
         <v/>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="10" t="str">
         <f>IF(_val_month_day!F25="","",_val_month_day!F25)</f>
         <v/>
       </c>
-      <c r="I18" s="11" t="str">
+      <c r="I18" s="10" t="str">
         <f>IF(_val_month_day!G25="","",_val_month_day!G25)</f>
         <v/>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="10" t="str">
         <f>IF(_val_month_day!H25="","",_val_month_day!H25)</f>
         <v/>
       </c>
-      <c r="K18" s="11" t="str">
+      <c r="K18" s="10" t="str">
         <f>IF(_val_month_day!I25="","",_val_month_day!I25)</f>
         <v/>
       </c>
-      <c r="L18" s="11" t="str">
+      <c r="L18" s="10" t="str">
         <f>IF(_val_month_day!J25="","",_val_month_day!J25)</f>
         <v/>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="10" t="str">
         <f>IF(_val_month_day!K25="","",_val_month_day!K25)</f>
         <v/>
       </c>
-      <c r="N18" s="11" t="str">
+      <c r="N18" s="10" t="str">
         <f>IF(_val_month_day!L25="","",_val_month_day!L25)</f>
         <v/>
       </c>
-      <c r="O18" s="11" t="str">
+      <c r="O18" s="10" t="str">
         <f>IF(_val_month_day!M25="","",_val_month_day!M25)</f>
         <v/>
       </c>
-      <c r="P18" s="11" t="str">
+      <c r="P18" s="10" t="str">
         <f>IF(_val_month_day!N25="","",_val_month_day!N25)</f>
         <v/>
       </c>
-      <c r="Q18" s="11" t="str">
+      <c r="Q18" s="10" t="str">
         <f>IF(_val_month_day!O25="","",_val_month_day!O25)</f>
         <v/>
       </c>
-      <c r="R18" s="11" t="str">
+      <c r="R18" s="10" t="str">
         <f>IF(_val_month_day!P25="","",_val_month_day!P25)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B19" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43601</v>
-      </c>
-      <c r="C19" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="19">
+      <c r="B19" s="9">
+        <f ca="1">B18+1</f>
+        <v>43662</v>
+      </c>
+      <c r="C19" s="10" t="str">
         <f>IF(_val_month_day!A26="","",_val_month_day!A26)</f>
         <v/>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="10" t="str">
         <f>IF(_val_month_day!B26="","",_val_month_day!B26)</f>
         <v/>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="10" t="str">
         <f>IF(_val_month_day!C26="","",_val_month_day!C26)</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="10" t="str">
         <f>IF(_val_month_day!D26="","",_val_month_day!D26)</f>
         <v/>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="10" t="str">
         <f>IF(_val_month_day!E26="","",_val_month_day!E26)</f>
         <v/>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="10" t="str">
         <f>IF(_val_month_day!F26="","",_val_month_day!F26)</f>
         <v/>
       </c>
-      <c r="I19" s="11" t="str">
+      <c r="I19" s="10" t="str">
         <f>IF(_val_month_day!G26="","",_val_month_day!G26)</f>
         <v/>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="10" t="str">
         <f>IF(_val_month_day!H26="","",_val_month_day!H26)</f>
         <v/>
       </c>
-      <c r="K19" s="11" t="str">
+      <c r="K19" s="10" t="str">
         <f>IF(_val_month_day!I26="","",_val_month_day!I26)</f>
         <v/>
       </c>
-      <c r="L19" s="11" t="str">
+      <c r="L19" s="10" t="str">
         <f>IF(_val_month_day!J26="","",_val_month_day!J26)</f>
         <v/>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="10" t="str">
         <f>IF(_val_month_day!K26="","",_val_month_day!K26)</f>
         <v/>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="10" t="str">
         <f>IF(_val_month_day!L26="","",_val_month_day!L26)</f>
         <v/>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="O19" s="10" t="str">
         <f>IF(_val_month_day!M26="","",_val_month_day!M26)</f>
         <v/>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="P19" s="10" t="str">
         <f>IF(_val_month_day!N26="","",_val_month_day!N26)</f>
         <v/>
       </c>
-      <c r="Q19" s="11" t="str">
+      <c r="Q19" s="10" t="str">
         <f>IF(_val_month_day!O26="","",_val_month_day!O26)</f>
         <v/>
       </c>
-      <c r="R19" s="11" t="str">
+      <c r="R19" s="10" t="str">
         <f>IF(_val_month_day!P26="","",_val_month_day!P26)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B20" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43602</v>
-      </c>
-      <c r="C20" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="20">
+      <c r="B20" s="9">
+        <f ca="1">B19+1</f>
+        <v>43663</v>
+      </c>
+      <c r="C20" s="10" t="str">
         <f>IF(_val_month_day!A27="","",_val_month_day!A27)</f>
         <v/>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="10" t="str">
         <f>IF(_val_month_day!B27="","",_val_month_day!B27)</f>
         <v/>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="10" t="str">
         <f>IF(_val_month_day!C27="","",_val_month_day!C27)</f>
         <v/>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="10" t="str">
         <f>IF(_val_month_day!D27="","",_val_month_day!D27)</f>
         <v/>
       </c>
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="10" t="str">
         <f>IF(_val_month_day!E27="","",_val_month_day!E27)</f>
         <v/>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" s="10" t="str">
         <f>IF(_val_month_day!F27="","",_val_month_day!F27)</f>
         <v/>
       </c>
-      <c r="I20" s="11" t="str">
+      <c r="I20" s="10" t="str">
         <f>IF(_val_month_day!G27="","",_val_month_day!G27)</f>
         <v/>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="10" t="str">
         <f>IF(_val_month_day!H27="","",_val_month_day!H27)</f>
         <v/>
       </c>
-      <c r="K20" s="11" t="str">
+      <c r="K20" s="10" t="str">
         <f>IF(_val_month_day!I27="","",_val_month_day!I27)</f>
         <v/>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="10" t="str">
         <f>IF(_val_month_day!J27="","",_val_month_day!J27)</f>
         <v/>
       </c>
-      <c r="M20" s="11" t="str">
+      <c r="M20" s="10" t="str">
         <f>IF(_val_month_day!K27="","",_val_month_day!K27)</f>
         <v/>
       </c>
-      <c r="N20" s="11" t="str">
+      <c r="N20" s="10" t="str">
         <f>IF(_val_month_day!L27="","",_val_month_day!L27)</f>
         <v/>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="10" t="str">
         <f>IF(_val_month_day!M27="","",_val_month_day!M27)</f>
         <v/>
       </c>
-      <c r="P20" s="11" t="str">
+      <c r="P20" s="10" t="str">
         <f>IF(_val_month_day!N27="","",_val_month_day!N27)</f>
         <v/>
       </c>
-      <c r="Q20" s="11" t="str">
+      <c r="Q20" s="10" t="str">
         <f>IF(_val_month_day!O27="","",_val_month_day!O27)</f>
         <v/>
       </c>
-      <c r="R20" s="11" t="str">
+      <c r="R20" s="10" t="str">
         <f>IF(_val_month_day!P27="","",_val_month_day!P27)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B21" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43603</v>
-      </c>
-      <c r="C21" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="21">
+      <c r="B21" s="9">
+        <f ca="1">B20+1</f>
+        <v>43664</v>
+      </c>
+      <c r="C21" s="10" t="str">
         <f>IF(_val_month_day!A28="","",_val_month_day!A28)</f>
         <v/>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="10" t="str">
         <f>IF(_val_month_day!B28="","",_val_month_day!B28)</f>
         <v/>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="10" t="str">
         <f>IF(_val_month_day!C28="","",_val_month_day!C28)</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="10" t="str">
         <f>IF(_val_month_day!D28="","",_val_month_day!D28)</f>
         <v/>
       </c>
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="10" t="str">
         <f>IF(_val_month_day!E28="","",_val_month_day!E28)</f>
         <v/>
       </c>
-      <c r="H21" s="11" t="str">
+      <c r="H21" s="10" t="str">
         <f>IF(_val_month_day!F28="","",_val_month_day!F28)</f>
         <v/>
       </c>
-      <c r="I21" s="11" t="str">
+      <c r="I21" s="10" t="str">
         <f>IF(_val_month_day!G28="","",_val_month_day!G28)</f>
         <v/>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="J21" s="10" t="str">
         <f>IF(_val_month_day!H28="","",_val_month_day!H28)</f>
         <v/>
       </c>
-      <c r="K21" s="11" t="str">
+      <c r="K21" s="10" t="str">
         <f>IF(_val_month_day!I28="","",_val_month_day!I28)</f>
         <v/>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="10" t="str">
         <f>IF(_val_month_day!J28="","",_val_month_day!J28)</f>
         <v/>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="10" t="str">
         <f>IF(_val_month_day!K28="","",_val_month_day!K28)</f>
         <v/>
       </c>
-      <c r="N21" s="11" t="str">
+      <c r="N21" s="10" t="str">
         <f>IF(_val_month_day!L28="","",_val_month_day!L28)</f>
         <v/>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="10" t="str">
         <f>IF(_val_month_day!M28="","",_val_month_day!M28)</f>
         <v/>
       </c>
-      <c r="P21" s="11" t="str">
+      <c r="P21" s="10" t="str">
         <f>IF(_val_month_day!N28="","",_val_month_day!N28)</f>
         <v/>
       </c>
-      <c r="Q21" s="11" t="str">
+      <c r="Q21" s="10" t="str">
         <f>IF(_val_month_day!O28="","",_val_month_day!O28)</f>
         <v/>
       </c>
-      <c r="R21" s="11" t="str">
+      <c r="R21" s="10" t="str">
         <f>IF(_val_month_day!P28="","",_val_month_day!P28)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B22" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43604</v>
-      </c>
-      <c r="C22" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="22">
+      <c r="B22" s="9">
+        <f ca="1">B21+1</f>
+        <v>43665</v>
+      </c>
+      <c r="C22" s="10" t="str">
         <f>IF(_val_month_day!A29="","",_val_month_day!A29)</f>
         <v/>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="10" t="str">
         <f>IF(_val_month_day!B29="","",_val_month_day!B29)</f>
         <v/>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="10" t="str">
         <f>IF(_val_month_day!C29="","",_val_month_day!C29)</f>
         <v/>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="10" t="str">
         <f>IF(_val_month_day!D29="","",_val_month_day!D29)</f>
         <v/>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="10" t="str">
         <f>IF(_val_month_day!E29="","",_val_month_day!E29)</f>
         <v/>
       </c>
-      <c r="H22" s="11" t="str">
+      <c r="H22" s="10" t="str">
         <f>IF(_val_month_day!F29="","",_val_month_day!F29)</f>
         <v/>
       </c>
-      <c r="I22" s="11" t="str">
+      <c r="I22" s="10" t="str">
         <f>IF(_val_month_day!G29="","",_val_month_day!G29)</f>
         <v/>
       </c>
-      <c r="J22" s="11" t="str">
+      <c r="J22" s="10" t="str">
         <f>IF(_val_month_day!H29="","",_val_month_day!H29)</f>
         <v/>
       </c>
-      <c r="K22" s="11" t="str">
+      <c r="K22" s="10" t="str">
         <f>IF(_val_month_day!I29="","",_val_month_day!I29)</f>
         <v/>
       </c>
-      <c r="L22" s="11" t="str">
+      <c r="L22" s="10" t="str">
         <f>IF(_val_month_day!J29="","",_val_month_day!J29)</f>
         <v/>
       </c>
-      <c r="M22" s="11" t="str">
+      <c r="M22" s="10" t="str">
         <f>IF(_val_month_day!K29="","",_val_month_day!K29)</f>
         <v/>
       </c>
-      <c r="N22" s="11" t="str">
+      <c r="N22" s="10" t="str">
         <f>IF(_val_month_day!L29="","",_val_month_day!L29)</f>
         <v/>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="10" t="str">
         <f>IF(_val_month_day!M29="","",_val_month_day!M29)</f>
         <v/>
       </c>
-      <c r="P22" s="11" t="str">
+      <c r="P22" s="10" t="str">
         <f>IF(_val_month_day!N29="","",_val_month_day!N29)</f>
         <v/>
       </c>
-      <c r="Q22" s="11" t="str">
+      <c r="Q22" s="10" t="str">
         <f>IF(_val_month_day!O29="","",_val_month_day!O29)</f>
         <v/>
       </c>
-      <c r="R22" s="11" t="str">
+      <c r="R22" s="10" t="str">
         <f>IF(_val_month_day!P29="","",_val_month_day!P29)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B23" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43605</v>
-      </c>
-      <c r="C23" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="23">
+      <c r="B23" s="9">
+        <f ca="1">B22+1</f>
+        <v>43666</v>
+      </c>
+      <c r="C23" s="10" t="str">
         <f>IF(_val_month_day!A30="","",_val_month_day!A30)</f>
         <v/>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="10" t="str">
         <f>IF(_val_month_day!B30="","",_val_month_day!B30)</f>
         <v/>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="10" t="str">
         <f>IF(_val_month_day!C30="","",_val_month_day!C30)</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="10" t="str">
         <f>IF(_val_month_day!D30="","",_val_month_day!D30)</f>
         <v/>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="10" t="str">
         <f>IF(_val_month_day!E30="","",_val_month_day!E30)</f>
         <v/>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="10" t="str">
         <f>IF(_val_month_day!F30="","",_val_month_day!F30)</f>
         <v/>
       </c>
-      <c r="I23" s="11" t="str">
+      <c r="I23" s="10" t="str">
         <f>IF(_val_month_day!G30="","",_val_month_day!G30)</f>
         <v/>
       </c>
-      <c r="J23" s="11" t="str">
+      <c r="J23" s="10" t="str">
         <f>IF(_val_month_day!H30="","",_val_month_day!H30)</f>
         <v/>
       </c>
-      <c r="K23" s="11" t="str">
+      <c r="K23" s="10" t="str">
         <f>IF(_val_month_day!I30="","",_val_month_day!I30)</f>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="10" t="str">
         <f>IF(_val_month_day!J30="","",_val_month_day!J30)</f>
         <v/>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="10" t="str">
         <f>IF(_val_month_day!K30="","",_val_month_day!K30)</f>
         <v/>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="N23" s="10" t="str">
         <f>IF(_val_month_day!L30="","",_val_month_day!L30)</f>
         <v/>
       </c>
-      <c r="O23" s="11" t="str">
+      <c r="O23" s="10" t="str">
         <f>IF(_val_month_day!M30="","",_val_month_day!M30)</f>
         <v/>
       </c>
-      <c r="P23" s="11" t="str">
+      <c r="P23" s="10" t="str">
         <f>IF(_val_month_day!N30="","",_val_month_day!N30)</f>
         <v/>
       </c>
-      <c r="Q23" s="11" t="str">
+      <c r="Q23" s="10" t="str">
         <f>IF(_val_month_day!O30="","",_val_month_day!O30)</f>
         <v/>
       </c>
-      <c r="R23" s="11" t="str">
+      <c r="R23" s="10" t="str">
         <f>IF(_val_month_day!P30="","",_val_month_day!P30)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B24" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43606</v>
-      </c>
-      <c r="C24" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="24">
+      <c r="B24" s="9">
+        <f ca="1">B23+1</f>
+        <v>43667</v>
+      </c>
+      <c r="C24" s="10" t="str">
         <f>IF(_val_month_day!A31="","",_val_month_day!A31)</f>
         <v/>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="10" t="str">
         <f>IF(_val_month_day!B31="","",_val_month_day!B31)</f>
         <v/>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="10" t="str">
         <f>IF(_val_month_day!C31="","",_val_month_day!C31)</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="10" t="str">
         <f>IF(_val_month_day!D31="","",_val_month_day!D31)</f>
         <v/>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="10" t="str">
         <f>IF(_val_month_day!E31="","",_val_month_day!E31)</f>
         <v/>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="10" t="str">
         <f>IF(_val_month_day!F31="","",_val_month_day!F31)</f>
         <v/>
       </c>
-      <c r="I24" s="11" t="str">
+      <c r="I24" s="10" t="str">
         <f>IF(_val_month_day!G31="","",_val_month_day!G31)</f>
         <v/>
       </c>
-      <c r="J24" s="11" t="str">
+      <c r="J24" s="10" t="str">
         <f>IF(_val_month_day!H31="","",_val_month_day!H31)</f>
         <v/>
       </c>
-      <c r="K24" s="11" t="str">
+      <c r="K24" s="10" t="str">
         <f>IF(_val_month_day!I31="","",_val_month_day!I31)</f>
         <v/>
       </c>
-      <c r="L24" s="11" t="str">
+      <c r="L24" s="10" t="str">
         <f>IF(_val_month_day!J31="","",_val_month_day!J31)</f>
         <v/>
       </c>
-      <c r="M24" s="11" t="str">
+      <c r="M24" s="10" t="str">
         <f>IF(_val_month_day!K31="","",_val_month_day!K31)</f>
         <v/>
       </c>
-      <c r="N24" s="11" t="str">
+      <c r="N24" s="10" t="str">
         <f>IF(_val_month_day!L31="","",_val_month_day!L31)</f>
         <v/>
       </c>
-      <c r="O24" s="11" t="str">
+      <c r="O24" s="10" t="str">
         <f>IF(_val_month_day!M31="","",_val_month_day!M31)</f>
         <v/>
       </c>
-      <c r="P24" s="11" t="str">
+      <c r="P24" s="10" t="str">
         <f>IF(_val_month_day!N31="","",_val_month_day!N31)</f>
         <v/>
       </c>
-      <c r="Q24" s="11" t="str">
+      <c r="Q24" s="10" t="str">
         <f>IF(_val_month_day!O31="","",_val_month_day!O31)</f>
         <v/>
       </c>
-      <c r="R24" s="11" t="str">
+      <c r="R24" s="10" t="str">
         <f>IF(_val_month_day!P31="","",_val_month_day!P31)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B25" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43607</v>
-      </c>
-      <c r="C25" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="25">
+      <c r="B25" s="9">
+        <f ca="1">B24+1</f>
+        <v>43668</v>
+      </c>
+      <c r="C25" s="10" t="str">
         <f>IF(_val_month_day!A32="","",_val_month_day!A32)</f>
         <v/>
       </c>
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="10" t="str">
         <f>IF(_val_month_day!B32="","",_val_month_day!B32)</f>
         <v/>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="10" t="str">
         <f>IF(_val_month_day!C32="","",_val_month_day!C32)</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f>IF(_val_month_day!D32="","",_val_month_day!D32)</f>
         <v/>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="10" t="str">
         <f>IF(_val_month_day!E32="","",_val_month_day!E32)</f>
         <v/>
       </c>
-      <c r="H25" s="11" t="str">
+      <c r="H25" s="10" t="str">
         <f>IF(_val_month_day!F32="","",_val_month_day!F32)</f>
         <v/>
       </c>
-      <c r="I25" s="11" t="str">
+      <c r="I25" s="10" t="str">
         <f>IF(_val_month_day!G32="","",_val_month_day!G32)</f>
         <v/>
       </c>
-      <c r="J25" s="11" t="str">
+      <c r="J25" s="10" t="str">
         <f>IF(_val_month_day!H32="","",_val_month_day!H32)</f>
         <v/>
       </c>
-      <c r="K25" s="11" t="str">
+      <c r="K25" s="10" t="str">
         <f>IF(_val_month_day!I32="","",_val_month_day!I32)</f>
         <v/>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="10" t="str">
         <f>IF(_val_month_day!J32="","",_val_month_day!J32)</f>
         <v/>
       </c>
-      <c r="M25" s="11" t="str">
+      <c r="M25" s="10" t="str">
         <f>IF(_val_month_day!K32="","",_val_month_day!K32)</f>
         <v/>
       </c>
-      <c r="N25" s="11" t="str">
+      <c r="N25" s="10" t="str">
         <f>IF(_val_month_day!L32="","",_val_month_day!L32)</f>
         <v/>
       </c>
-      <c r="O25" s="11" t="str">
+      <c r="O25" s="10" t="str">
         <f>IF(_val_month_day!M32="","",_val_month_day!M32)</f>
         <v/>
       </c>
-      <c r="P25" s="11" t="str">
+      <c r="P25" s="10" t="str">
         <f>IF(_val_month_day!N32="","",_val_month_day!N32)</f>
         <v/>
       </c>
-      <c r="Q25" s="11" t="str">
+      <c r="Q25" s="10" t="str">
         <f>IF(_val_month_day!O32="","",_val_month_day!O32)</f>
         <v/>
       </c>
-      <c r="R25" s="11" t="str">
+      <c r="R25" s="10" t="str">
         <f>IF(_val_month_day!P32="","",_val_month_day!P32)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B26" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43608</v>
-      </c>
-      <c r="C26" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="26">
+      <c r="B26" s="9">
+        <f ca="1">B25+1</f>
+        <v>43669</v>
+      </c>
+      <c r="C26" s="10" t="str">
         <f>IF(_val_month_day!A33="","",_val_month_day!A33)</f>
         <v/>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="10" t="str">
         <f>IF(_val_month_day!B33="","",_val_month_day!B33)</f>
         <v/>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="10" t="str">
         <f>IF(_val_month_day!C33="","",_val_month_day!C33)</f>
         <v/>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="10" t="str">
         <f>IF(_val_month_day!D33="","",_val_month_day!D33)</f>
         <v/>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="10" t="str">
         <f>IF(_val_month_day!E33="","",_val_month_day!E33)</f>
         <v/>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" s="10" t="str">
         <f>IF(_val_month_day!F33="","",_val_month_day!F33)</f>
         <v/>
       </c>
-      <c r="I26" s="11" t="str">
+      <c r="I26" s="10" t="str">
         <f>IF(_val_month_day!G33="","",_val_month_day!G33)</f>
         <v/>
       </c>
-      <c r="J26" s="11" t="str">
+      <c r="J26" s="10" t="str">
         <f>IF(_val_month_day!H33="","",_val_month_day!H33)</f>
         <v/>
       </c>
-      <c r="K26" s="11" t="str">
+      <c r="K26" s="10" t="str">
         <f>IF(_val_month_day!I33="","",_val_month_day!I33)</f>
         <v/>
       </c>
-      <c r="L26" s="11" t="str">
+      <c r="L26" s="10" t="str">
         <f>IF(_val_month_day!J33="","",_val_month_day!J33)</f>
         <v/>
       </c>
-      <c r="M26" s="11" t="str">
+      <c r="M26" s="10" t="str">
         <f>IF(_val_month_day!K33="","",_val_month_day!K33)</f>
         <v/>
       </c>
-      <c r="N26" s="11" t="str">
+      <c r="N26" s="10" t="str">
         <f>IF(_val_month_day!L33="","",_val_month_day!L33)</f>
         <v/>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="O26" s="10" t="str">
         <f>IF(_val_month_day!M33="","",_val_month_day!M33)</f>
         <v/>
       </c>
-      <c r="P26" s="11" t="str">
+      <c r="P26" s="10" t="str">
         <f>IF(_val_month_day!N33="","",_val_month_day!N33)</f>
         <v/>
       </c>
-      <c r="Q26" s="11" t="str">
+      <c r="Q26" s="10" t="str">
         <f>IF(_val_month_day!O33="","",_val_month_day!O33)</f>
         <v/>
       </c>
-      <c r="R26" s="11" t="str">
+      <c r="R26" s="10" t="str">
         <f>IF(_val_month_day!P33="","",_val_month_day!P33)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B27" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43609</v>
-      </c>
-      <c r="C27" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="27">
+      <c r="B27" s="9">
+        <f ca="1">B26+1</f>
+        <v>43670</v>
+      </c>
+      <c r="C27" s="10" t="str">
         <f>IF(_val_month_day!A34="","",_val_month_day!A34)</f>
         <v/>
       </c>
-      <c r="D27" s="11" t="str">
+      <c r="D27" s="10" t="str">
         <f>IF(_val_month_day!B34="","",_val_month_day!B34)</f>
         <v/>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="10" t="str">
         <f>IF(_val_month_day!C34="","",_val_month_day!C34)</f>
         <v/>
       </c>
-      <c r="F27" s="11" t="str">
+      <c r="F27" s="10" t="str">
         <f>IF(_val_month_day!D34="","",_val_month_day!D34)</f>
         <v/>
       </c>
-      <c r="G27" s="11" t="str">
+      <c r="G27" s="10" t="str">
         <f>IF(_val_month_day!E34="","",_val_month_day!E34)</f>
         <v/>
       </c>
-      <c r="H27" s="11" t="str">
+      <c r="H27" s="10" t="str">
         <f>IF(_val_month_day!F34="","",_val_month_day!F34)</f>
         <v/>
       </c>
-      <c r="I27" s="11" t="str">
+      <c r="I27" s="10" t="str">
         <f>IF(_val_month_day!G34="","",_val_month_day!G34)</f>
         <v/>
       </c>
-      <c r="J27" s="11" t="str">
+      <c r="J27" s="10" t="str">
         <f>IF(_val_month_day!H34="","",_val_month_day!H34)</f>
         <v/>
       </c>
-      <c r="K27" s="11" t="str">
+      <c r="K27" s="10" t="str">
         <f>IF(_val_month_day!I34="","",_val_month_day!I34)</f>
         <v/>
       </c>
-      <c r="L27" s="11" t="str">
+      <c r="L27" s="10" t="str">
         <f>IF(_val_month_day!J34="","",_val_month_day!J34)</f>
         <v/>
       </c>
-      <c r="M27" s="11" t="str">
+      <c r="M27" s="10" t="str">
         <f>IF(_val_month_day!K34="","",_val_month_day!K34)</f>
         <v/>
       </c>
-      <c r="N27" s="11" t="str">
+      <c r="N27" s="10" t="str">
         <f>IF(_val_month_day!L34="","",_val_month_day!L34)</f>
         <v/>
       </c>
-      <c r="O27" s="11" t="str">
+      <c r="O27" s="10" t="str">
         <f>IF(_val_month_day!M34="","",_val_month_day!M34)</f>
         <v/>
       </c>
-      <c r="P27" s="11" t="str">
+      <c r="P27" s="10" t="str">
         <f>IF(_val_month_day!N34="","",_val_month_day!N34)</f>
         <v/>
       </c>
-      <c r="Q27" s="11" t="str">
+      <c r="Q27" s="10" t="str">
         <f>IF(_val_month_day!O34="","",_val_month_day!O34)</f>
         <v/>
       </c>
-      <c r="R27" s="11" t="str">
+      <c r="R27" s="10" t="str">
         <f>IF(_val_month_day!P34="","",_val_month_day!P34)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B28" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43610</v>
-      </c>
-      <c r="C28" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="28">
+      <c r="B28" s="9">
+        <f ca="1">B27+1</f>
+        <v>43671</v>
+      </c>
+      <c r="C28" s="10" t="str">
         <f>IF(_val_month_day!A35="","",_val_month_day!A35)</f>
         <v/>
       </c>
-      <c r="D28" s="11" t="str">
+      <c r="D28" s="10" t="str">
         <f>IF(_val_month_day!B35="","",_val_month_day!B35)</f>
         <v/>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="10" t="str">
         <f>IF(_val_month_day!C35="","",_val_month_day!C35)</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="str">
+      <c r="F28" s="10" t="str">
         <f>IF(_val_month_day!D35="","",_val_month_day!D35)</f>
         <v/>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="G28" s="10" t="str">
         <f>IF(_val_month_day!E35="","",_val_month_day!E35)</f>
         <v/>
       </c>
-      <c r="H28" s="11" t="str">
+      <c r="H28" s="10" t="str">
         <f>IF(_val_month_day!F35="","",_val_month_day!F35)</f>
         <v/>
       </c>
-      <c r="I28" s="11" t="str">
+      <c r="I28" s="10" t="str">
         <f>IF(_val_month_day!G35="","",_val_month_day!G35)</f>
         <v/>
       </c>
-      <c r="J28" s="11" t="str">
+      <c r="J28" s="10" t="str">
         <f>IF(_val_month_day!H35="","",_val_month_day!H35)</f>
         <v/>
       </c>
-      <c r="K28" s="11" t="str">
+      <c r="K28" s="10" t="str">
         <f>IF(_val_month_day!I35="","",_val_month_day!I35)</f>
         <v/>
       </c>
-      <c r="L28" s="11" t="str">
+      <c r="L28" s="10" t="str">
         <f>IF(_val_month_day!J35="","",_val_month_day!J35)</f>
         <v/>
       </c>
-      <c r="M28" s="11" t="str">
+      <c r="M28" s="10" t="str">
         <f>IF(_val_month_day!K35="","",_val_month_day!K35)</f>
         <v/>
       </c>
-      <c r="N28" s="11" t="str">
+      <c r="N28" s="10" t="str">
         <f>IF(_val_month_day!L35="","",_val_month_day!L35)</f>
         <v/>
       </c>
-      <c r="O28" s="11" t="str">
+      <c r="O28" s="10" t="str">
         <f>IF(_val_month_day!M35="","",_val_month_day!M35)</f>
         <v/>
       </c>
-      <c r="P28" s="11" t="str">
+      <c r="P28" s="10" t="str">
         <f>IF(_val_month_day!N35="","",_val_month_day!N35)</f>
         <v/>
       </c>
-      <c r="Q28" s="11" t="str">
+      <c r="Q28" s="10" t="str">
         <f>IF(_val_month_day!O35="","",_val_month_day!O35)</f>
         <v/>
       </c>
-      <c r="R28" s="11" t="str">
+      <c r="R28" s="10" t="str">
         <f>IF(_val_month_day!P35="","",_val_month_day!P35)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B29" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43611</v>
-      </c>
-      <c r="C29" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="29">
+      <c r="B29" s="9">
+        <f ca="1">B28+1</f>
+        <v>43672</v>
+      </c>
+      <c r="C29" s="10" t="str">
         <f>IF(_val_month_day!A36="","",_val_month_day!A36)</f>
         <v/>
       </c>
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="10" t="str">
         <f>IF(_val_month_day!B36="","",_val_month_day!B36)</f>
         <v/>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="10" t="str">
         <f>IF(_val_month_day!C36="","",_val_month_day!C36)</f>
         <v/>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="10" t="str">
         <f>IF(_val_month_day!D36="","",_val_month_day!D36)</f>
         <v/>
       </c>
-      <c r="G29" s="11" t="str">
+      <c r="G29" s="10" t="str">
         <f>IF(_val_month_day!E36="","",_val_month_day!E36)</f>
         <v/>
       </c>
-      <c r="H29" s="11" t="str">
+      <c r="H29" s="10" t="str">
         <f>IF(_val_month_day!F36="","",_val_month_day!F36)</f>
         <v/>
       </c>
-      <c r="I29" s="11" t="str">
+      <c r="I29" s="10" t="str">
         <f>IF(_val_month_day!G36="","",_val_month_day!G36)</f>
         <v/>
       </c>
-      <c r="J29" s="11" t="str">
+      <c r="J29" s="10" t="str">
         <f>IF(_val_month_day!H36="","",_val_month_day!H36)</f>
         <v/>
       </c>
-      <c r="K29" s="11" t="str">
+      <c r="K29" s="10" t="str">
         <f>IF(_val_month_day!I36="","",_val_month_day!I36)</f>
         <v/>
       </c>
-      <c r="L29" s="11" t="str">
+      <c r="L29" s="10" t="str">
         <f>IF(_val_month_day!J36="","",_val_month_day!J36)</f>
         <v/>
       </c>
-      <c r="M29" s="11" t="str">
+      <c r="M29" s="10" t="str">
         <f>IF(_val_month_day!K36="","",_val_month_day!K36)</f>
         <v/>
       </c>
-      <c r="N29" s="11" t="str">
+      <c r="N29" s="10" t="str">
         <f>IF(_val_month_day!L36="","",_val_month_day!L36)</f>
         <v/>
       </c>
-      <c r="O29" s="11" t="str">
+      <c r="O29" s="10" t="str">
         <f>IF(_val_month_day!M36="","",_val_month_day!M36)</f>
         <v/>
       </c>
-      <c r="P29" s="11" t="str">
+      <c r="P29" s="10" t="str">
         <f>IF(_val_month_day!N36="","",_val_month_day!N36)</f>
         <v/>
       </c>
-      <c r="Q29" s="11" t="str">
+      <c r="Q29" s="10" t="str">
         <f>IF(_val_month_day!O36="","",_val_month_day!O36)</f>
         <v/>
       </c>
-      <c r="R29" s="11" t="str">
+      <c r="R29" s="10" t="str">
         <f>IF(_val_month_day!P36="","",_val_month_day!P36)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B30" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="C30" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="30">
+      <c r="B30" s="9">
+        <f ca="1">B29+1</f>
+        <v>43673</v>
+      </c>
+      <c r="C30" s="10" t="str">
         <f>IF(_val_month_day!A37="","",_val_month_day!A37)</f>
         <v/>
       </c>
-      <c r="D30" s="11" t="str">
+      <c r="D30" s="10" t="str">
         <f>IF(_val_month_day!B37="","",_val_month_day!B37)</f>
         <v/>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="10" t="str">
         <f>IF(_val_month_day!C37="","",_val_month_day!C37)</f>
         <v/>
       </c>
-      <c r="F30" s="11" t="str">
+      <c r="F30" s="10" t="str">
         <f>IF(_val_month_day!D37="","",_val_month_day!D37)</f>
         <v/>
       </c>
-      <c r="G30" s="11" t="str">
+      <c r="G30" s="10" t="str">
         <f>IF(_val_month_day!E37="","",_val_month_day!E37)</f>
         <v/>
       </c>
-      <c r="H30" s="11" t="str">
+      <c r="H30" s="10" t="str">
         <f>IF(_val_month_day!F37="","",_val_month_day!F37)</f>
         <v/>
       </c>
-      <c r="I30" s="11" t="str">
+      <c r="I30" s="10" t="str">
         <f>IF(_val_month_day!G37="","",_val_month_day!G37)</f>
         <v/>
       </c>
-      <c r="J30" s="11" t="str">
+      <c r="J30" s="10" t="str">
         <f>IF(_val_month_day!H37="","",_val_month_day!H37)</f>
         <v/>
       </c>
-      <c r="K30" s="11" t="str">
+      <c r="K30" s="10" t="str">
         <f>IF(_val_month_day!I37="","",_val_month_day!I37)</f>
         <v/>
       </c>
-      <c r="L30" s="11" t="str">
+      <c r="L30" s="10" t="str">
         <f>IF(_val_month_day!J37="","",_val_month_day!J37)</f>
         <v/>
       </c>
-      <c r="M30" s="11" t="str">
+      <c r="M30" s="10" t="str">
         <f>IF(_val_month_day!K37="","",_val_month_day!K37)</f>
         <v/>
       </c>
-      <c r="N30" s="11" t="str">
+      <c r="N30" s="10" t="str">
         <f>IF(_val_month_day!L37="","",_val_month_day!L37)</f>
         <v/>
       </c>
-      <c r="O30" s="11" t="str">
+      <c r="O30" s="10" t="str">
         <f>IF(_val_month_day!M37="","",_val_month_day!M37)</f>
         <v/>
       </c>
-      <c r="P30" s="11" t="str">
+      <c r="P30" s="10" t="str">
         <f>IF(_val_month_day!N37="","",_val_month_day!N37)</f>
         <v/>
       </c>
-      <c r="Q30" s="11" t="str">
+      <c r="Q30" s="10" t="str">
         <f>IF(_val_month_day!O37="","",_val_month_day!O37)</f>
         <v/>
       </c>
-      <c r="R30" s="11" t="str">
+      <c r="R30" s="10" t="str">
         <f>IF(_val_month_day!P37="","",_val_month_day!P37)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B31" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43613</v>
-      </c>
-      <c r="C31" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="31">
+      <c r="B31" s="9">
+        <f ca="1">B30+1</f>
+        <v>43674</v>
+      </c>
+      <c r="C31" s="10" t="str">
         <f>IF(_val_month_day!A38="","",_val_month_day!A38)</f>
         <v/>
       </c>
-      <c r="D31" s="11" t="str">
+      <c r="D31" s="10" t="str">
         <f>IF(_val_month_day!B38="","",_val_month_day!B38)</f>
         <v/>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="10" t="str">
         <f>IF(_val_month_day!C38="","",_val_month_day!C38)</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="str">
+      <c r="F31" s="10" t="str">
         <f>IF(_val_month_day!D38="","",_val_month_day!D38)</f>
         <v/>
       </c>
-      <c r="G31" s="11" t="str">
+      <c r="G31" s="10" t="str">
         <f>IF(_val_month_day!E38="","",_val_month_day!E38)</f>
         <v/>
       </c>
-      <c r="H31" s="11" t="str">
+      <c r="H31" s="10" t="str">
         <f>IF(_val_month_day!F38="","",_val_month_day!F38)</f>
         <v/>
       </c>
-      <c r="I31" s="11" t="str">
+      <c r="I31" s="10" t="str">
         <f>IF(_val_month_day!G38="","",_val_month_day!G38)</f>
         <v/>
       </c>
-      <c r="J31" s="11" t="str">
+      <c r="J31" s="10" t="str">
         <f>IF(_val_month_day!H38="","",_val_month_day!H38)</f>
         <v/>
       </c>
-      <c r="K31" s="11" t="str">
+      <c r="K31" s="10" t="str">
         <f>IF(_val_month_day!I38="","",_val_month_day!I38)</f>
         <v/>
       </c>
-      <c r="L31" s="11" t="str">
+      <c r="L31" s="10" t="str">
         <f>IF(_val_month_day!J38="","",_val_month_day!J38)</f>
         <v/>
       </c>
-      <c r="M31" s="11" t="str">
+      <c r="M31" s="10" t="str">
         <f>IF(_val_month_day!K38="","",_val_month_day!K38)</f>
         <v/>
       </c>
-      <c r="N31" s="11" t="str">
+      <c r="N31" s="10" t="str">
         <f>IF(_val_month_day!L38="","",_val_month_day!L38)</f>
         <v/>
       </c>
-      <c r="O31" s="11" t="str">
+      <c r="O31" s="10" t="str">
         <f>IF(_val_month_day!M38="","",_val_month_day!M38)</f>
         <v/>
       </c>
-      <c r="P31" s="11" t="str">
+      <c r="P31" s="10" t="str">
         <f>IF(_val_month_day!N38="","",_val_month_day!N38)</f>
         <v/>
       </c>
-      <c r="Q31" s="11" t="str">
+      <c r="Q31" s="10" t="str">
         <f>IF(_val_month_day!O38="","",_val_month_day!O38)</f>
         <v/>
       </c>
-      <c r="R31" s="11" t="str">
+      <c r="R31" s="10" t="str">
         <f>IF(_val_month_day!P38="","",_val_month_day!P38)</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B32" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43614</v>
-      </c>
-      <c r="C32" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="32">
+      <c r="B32" s="9">
+        <f ca="1">B31+1</f>
+        <v>43675</v>
+      </c>
+      <c r="C32" s="10" t="str">
         <f>IF(_val_month_day!A39="","",_val_month_day!A39)</f>
         <v/>
       </c>
-      <c r="D32" s="11" t="str">
+      <c r="D32" s="10" t="str">
         <f>IF(_val_month_day!B39="","",_val_month_day!B39)</f>
         <v/>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="10" t="str">
         <f>IF(_val_month_day!C39="","",_val_month_day!C39)</f>
         <v/>
       </c>
-      <c r="F32" s="11" t="str">
+      <c r="F32" s="10" t="str">
         <f>IF(_val_month_day!D39="","",_val_month_day!D39)</f>
         <v/>
       </c>
-      <c r="G32" s="11" t="str">
+      <c r="G32" s="10" t="str">
         <f>IF(_val_month_day!E39="","",_val_month_day!E39)</f>
         <v/>
       </c>
-      <c r="H32" s="11" t="str">
+      <c r="H32" s="10" t="str">
         <f>IF(_val_month_day!F39="","",_val_month_day!F39)</f>
         <v/>
       </c>
-      <c r="I32" s="11" t="str">
+      <c r="I32" s="10" t="str">
         <f>IF(_val_month_day!G39="","",_val_month_day!G39)</f>
         <v/>
       </c>
-      <c r="J32" s="11" t="str">
+      <c r="J32" s="10" t="str">
         <f>IF(_val_month_day!H39="","",_val_month_day!H39)</f>
         <v/>
       </c>
-      <c r="K32" s="11" t="str">
+      <c r="K32" s="10" t="str">
         <f>IF(_val_month_day!I39="","",_val_month_day!I39)</f>
         <v/>
       </c>
-      <c r="L32" s="11" t="str">
+      <c r="L32" s="10" t="str">
         <f>IF(_val_month_day!J39="","",_val_month_day!J39)</f>
         <v/>
       </c>
-      <c r="M32" s="11" t="str">
+      <c r="M32" s="10" t="str">
         <f>IF(_val_month_day!K39="","",_val_month_day!K39)</f>
         <v/>
       </c>
-      <c r="N32" s="11" t="str">
+      <c r="N32" s="10" t="str">
         <f>IF(_val_month_day!L39="","",_val_month_day!L39)</f>
         <v/>
       </c>
-      <c r="O32" s="11" t="str">
+      <c r="O32" s="10" t="str">
         <f>IF(_val_month_day!M39="","",_val_month_day!M39)</f>
         <v/>
       </c>
-      <c r="P32" s="11" t="str">
+      <c r="P32" s="10" t="str">
         <f>IF(_val_month_day!N39="","",_val_month_day!N39)</f>
         <v/>
       </c>
-      <c r="Q32" s="11" t="str">
+      <c r="Q32" s="10" t="str">
         <f>IF(_val_month_day!O39="","",_val_month_day!O39)</f>
         <v/>
       </c>
-      <c r="R32" s="11" t="str">
+      <c r="R32" s="10" t="str">
         <f>IF(_val_month_day!P39="","",_val_month_day!P39)</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B33" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43615</v>
-      </c>
-      <c r="C33" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="33">
+      <c r="B33" s="9">
+        <f ca="1">B32+1</f>
+        <v>43676</v>
+      </c>
+      <c r="C33" s="10" t="str">
         <f>IF(_val_month_day!A40="","",_val_month_day!A40)</f>
         <v/>
       </c>
-      <c r="D33" s="11" t="str">
+      <c r="D33" s="10" t="str">
         <f>IF(_val_month_day!B40="","",_val_month_day!B40)</f>
         <v/>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="10" t="str">
         <f>IF(_val_month_day!C40="","",_val_month_day!C40)</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="str">
+      <c r="F33" s="10" t="str">
         <f>IF(_val_month_day!D40="","",_val_month_day!D40)</f>
         <v/>
       </c>
-      <c r="G33" s="11" t="str">
+      <c r="G33" s="10" t="str">
         <f>IF(_val_month_day!E40="","",_val_month_day!E40)</f>
         <v/>
       </c>
-      <c r="H33" s="11" t="str">
+      <c r="H33" s="10" t="str">
         <f>IF(_val_month_day!F40="","",_val_month_day!F40)</f>
         <v/>
       </c>
-      <c r="I33" s="11" t="str">
+      <c r="I33" s="10" t="str">
         <f>IF(_val_month_day!G40="","",_val_month_day!G40)</f>
         <v/>
       </c>
-      <c r="J33" s="11" t="str">
+      <c r="J33" s="10" t="str">
         <f>IF(_val_month_day!H40="","",_val_month_day!H40)</f>
         <v/>
       </c>
-      <c r="K33" s="11" t="str">
+      <c r="K33" s="10" t="str">
         <f>IF(_val_month_day!I40="","",_val_month_day!I40)</f>
         <v/>
       </c>
-      <c r="L33" s="11" t="str">
+      <c r="L33" s="10" t="str">
         <f>IF(_val_month_day!J40="","",_val_month_day!J40)</f>
         <v/>
       </c>
-      <c r="M33" s="11" t="str">
+      <c r="M33" s="10" t="str">
         <f>IF(_val_month_day!K40="","",_val_month_day!K40)</f>
         <v/>
       </c>
-      <c r="N33" s="11" t="str">
+      <c r="N33" s="10" t="str">
         <f>IF(_val_month_day!L40="","",_val_month_day!L40)</f>
         <v/>
       </c>
-      <c r="O33" s="11" t="str">
+      <c r="O33" s="10" t="str">
         <f>IF(_val_month_day!M40="","",_val_month_day!M40)</f>
         <v/>
       </c>
-      <c r="P33" s="11" t="str">
+      <c r="P33" s="10" t="str">
         <f>IF(_val_month_day!N40="","",_val_month_day!N40)</f>
         <v/>
       </c>
-      <c r="Q33" s="11" t="str">
+      <c r="Q33" s="10" t="str">
         <f>IF(_val_month_day!O40="","",_val_month_day!O40)</f>
         <v/>
       </c>
-      <c r="R33" s="11" t="str">
+      <c r="R33" s="10" t="str">
         <f>IF(_val_month_day!P40="","",_val_month_day!P40)</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B34" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>43616</v>
-      </c>
-      <c r="C34" s="11" t="str">
+    <row ht="16.5" customHeight="1" r="34">
+      <c r="B34" s="9">
+        <f ca="1">B33+1</f>
+        <v>43677</v>
+      </c>
+      <c r="C34" s="10" t="str">
         <f>IF(_val_month_day!A41="","",_val_month_day!A41)</f>
         <v/>
       </c>
-      <c r="D34" s="11" t="str">
+      <c r="D34" s="10" t="str">
         <f>IF(_val_month_day!B41="","",_val_month_day!B41)</f>
         <v/>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="10" t="str">
         <f>IF(_val_month_day!C41="","",_val_month_day!C41)</f>
         <v/>
       </c>
-      <c r="F34" s="11" t="str">
+      <c r="F34" s="10" t="str">
         <f>IF(_val_month_day!D41="","",_val_month_day!D41)</f>
         <v/>
       </c>
-      <c r="G34" s="11" t="str">
+      <c r="G34" s="10" t="str">
         <f>IF(_val_month_day!E41="","",_val_month_day!E41)</f>
         <v/>
       </c>
-      <c r="H34" s="11" t="str">
+      <c r="H34" s="10" t="str">
         <f>IF(_val_month_day!F41="","",_val_month_day!F41)</f>
         <v/>
       </c>
-      <c r="I34" s="11" t="str">
+      <c r="I34" s="10" t="str">
         <f>IF(_val_month_day!G41="","",_val_month_day!G41)</f>
         <v/>
       </c>
-      <c r="J34" s="11" t="str">
+      <c r="J34" s="10" t="str">
         <f>IF(_val_month_day!H41="","",_val_month_day!H41)</f>
         <v/>
       </c>
-      <c r="K34" s="11" t="str">
+      <c r="K34" s="10" t="str">
         <f>IF(_val_month_day!I41="","",_val_month_day!I41)</f>
         <v/>
       </c>
-      <c r="L34" s="11" t="str">
+      <c r="L34" s="10" t="str">
         <f>IF(_val_month_day!J41="","",_val_month_day!J41)</f>
         <v/>
       </c>
-      <c r="M34" s="11" t="str">
+      <c r="M34" s="10" t="str">
         <f>IF(_val_month_day!K41="","",_val_month_day!K41)</f>
         <v/>
       </c>
-      <c r="N34" s="11" t="str">
+      <c r="N34" s="10" t="str">
         <f>IF(_val_month_day!L41="","",_val_month_day!L41)</f>
         <v/>
       </c>
-      <c r="O34" s="11" t="str">
+      <c r="O34" s="10" t="str">
         <f>IF(_val_month_day!M41="","",_val_month_day!M41)</f>
         <v/>
       </c>
-      <c r="P34" s="11" t="str">
+      <c r="P34" s="10" t="str">
         <f>IF(_val_month_day!N41="","",_val_month_day!N41)</f>
         <v/>
       </c>
-      <c r="Q34" s="11" t="str">
+      <c r="Q34" s="10" t="str">
         <f>IF(_val_month_day!O41="","",_val_month_day!O41)</f>
         <v/>
       </c>
-      <c r="R34" s="11" t="str">
+      <c r="R34" s="10" t="str">
         <f>IF(_val_month_day!P41="","",_val_month_day!P41)</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="16.5" customHeight="1" spans="2:18">
-      <c r="B35" s="12" t="s">
+    <row ht="16.5" customHeight="1" r="35">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="11" t="str">
-        <f t="shared" ref="C35:R35" si="1">IF(COUNTBLANK(C4:C34)&gt;30,"",SUM(C4:C34))</f>
-        <v/>
-      </c>
-      <c r="D35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R35" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C35" s="10" t="str">
+        <f>IF(COUNTBLANK(C4:C34)&gt;30,"",SUM(C4:C34))</f>
+        <v/>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>IF(COUNTBLANK(D4:D34)&gt;30,"",SUM(D4:D34))</f>
+        <v/>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f>IF(COUNTBLANK(E4:E34)&gt;30,"",SUM(E4:E34))</f>
+        <v/>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f>IF(COUNTBLANK(F4:F34)&gt;30,"",SUM(F4:F34))</f>
+        <v/>
+      </c>
+      <c r="G35" s="10" t="str">
+        <f>IF(COUNTBLANK(G4:G34)&gt;30,"",SUM(G4:G34))</f>
+        <v/>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f>IF(COUNTBLANK(H4:H34)&gt;30,"",SUM(H4:H34))</f>
+        <v/>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f>IF(COUNTBLANK(I4:I34)&gt;30,"",SUM(I4:I34))</f>
+        <v/>
+      </c>
+      <c r="J35" s="10" t="str">
+        <f>IF(COUNTBLANK(J4:J34)&gt;30,"",SUM(J4:J34))</f>
+        <v/>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f>IF(COUNTBLANK(K4:K34)&gt;30,"",SUM(K4:K34))</f>
+        <v/>
+      </c>
+      <c r="L35" s="10" t="str">
+        <f>IF(COUNTBLANK(L4:L34)&gt;30,"",SUM(L4:L34))</f>
+        <v/>
+      </c>
+      <c r="M35" s="10" t="str">
+        <f>IF(COUNTBLANK(M4:M34)&gt;30,"",SUM(M4:M34))</f>
+        <v/>
+      </c>
+      <c r="N35" s="10" t="str">
+        <f>IF(COUNTBLANK(N4:N34)&gt;30,"",SUM(N4:N34))</f>
+        <v/>
+      </c>
+      <c r="O35" s="10" t="str">
+        <f>IF(COUNTBLANK(O4:O34)&gt;30,"",SUM(O4:O34))</f>
+        <v/>
+      </c>
+      <c r="P35" s="10" t="str">
+        <f>IF(COUNTBLANK(P4:P34)&gt;30,"",SUM(P4:P34))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="10" t="str">
+        <f>IF(COUNTBLANK(Q4:Q34)&gt;30,"",SUM(Q4:Q34))</f>
+        <v/>
+      </c>
+      <c r="R35" s="10" t="str">
+        <f>IF(COUNTBLANK(R4:R34)&gt;30,"",SUM(R4:R34))</f>
         <v/>
       </c>
     </row>
@@ -3520,240 +3770,234 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="K2:P2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/配煤-配煤量月报表.xlsx
+++ b/excel/finished/焦化/配煤-配煤量月报表.xlsx
@@ -16,15 +16,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">焦化分厂配煤量记录       </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">焦化备煤作业区6#-7#配煤量记录 </t>
   </si>
   <si>
     <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
     <t>日期</t>
+  </si>
+  <si>
+    <t>1日</t>
+  </si>
+  <si>
+    <t>2日</t>
+  </si>
+  <si>
+    <t>3日</t>
+  </si>
+  <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>8日</t>
+  </si>
+  <si>
+    <t>9日</t>
+  </si>
+  <si>
+    <t>10日</t>
+  </si>
+  <si>
+    <t>11日</t>
+  </si>
+  <si>
+    <t>12日</t>
+  </si>
+  <si>
+    <t>13日</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>15日</t>
+  </si>
+  <si>
+    <t>16日</t>
+  </si>
+  <si>
+    <t>17日</t>
+  </si>
+  <si>
+    <t>18日</t>
+  </si>
+  <si>
+    <t>19日</t>
+  </si>
+  <si>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>21日</t>
+  </si>
+  <si>
+    <t>22日</t>
+  </si>
+  <si>
+    <t>23日</t>
+  </si>
+  <si>
+    <t>24日</t>
+  </si>
+  <si>
+    <t>25日</t>
+  </si>
+  <si>
+    <t>26日</t>
+  </si>
+  <si>
+    <t>27日</t>
+  </si>
+  <si>
+    <t>28日</t>
+  </si>
+  <si>
+    <t>29日</t>
+  </si>
+  <si>
+    <t>30日</t>
+  </si>
+  <si>
+    <t>31日</t>
   </si>
   <si>
     <t>月累计</t>
@@ -202,7 +295,7 @@
     <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -334,6 +427,9 @@
       <sz val="18"/>
     </font>
     <font>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <sz val="12"/>
     </font>
@@ -355,6 +451,11 @@
       <name val="宋体"/>
       <color theme="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -831,29 +932,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="24" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="25" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="25" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="25" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="27" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1416,2357 +1522,2329 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="19.5" r="1" s="1">
-      <c r="G1" s="2" t="str">
+      <c r="E1" s="2" t="str">
         <f>IF(_metadata!B7="","",_metadata!B7)</f>
         <v/>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row customFormat="1" ht="18.75" customHeight="1" r="2" s="3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row customFormat="1" ht="18.75" customHeight="1" r="2" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
     <row ht="16.5" customHeight="1" r="3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="9" t="str">
         <f>IF(_name_month_day!A1="","",_name_month_day!A1)</f>
         <v/>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(_name_month_day!B1="","",_name_month_day!B1)</f>
         <v/>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="9" t="str">
         <f>IF(_name_month_day!C1="","",_name_month_day!C1)</f>
         <v/>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" s="9" t="str">
         <f>IF(_name_month_day!D1="","",_name_month_day!D1)</f>
         <v/>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="G3" s="9" t="str">
         <f>IF(_name_month_day!E1="","",_name_month_day!E1)</f>
         <v/>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="9" t="str">
         <f>IF(_name_month_day!F1="","",_name_month_day!F1)</f>
         <v/>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="9" t="str">
         <f>IF(_name_month_day!G1="","",_name_month_day!G1)</f>
         <v/>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="J3" s="9" t="str">
         <f>IF(_name_month_day!H1="","",_name_month_day!H1)</f>
         <v/>
       </c>
-      <c r="K3" s="8" t="str">
+      <c r="K3" s="9" t="str">
         <f>IF(_name_month_day!I1="","",_name_month_day!I1)</f>
         <v/>
       </c>
-      <c r="L3" s="8" t="str">
+      <c r="L3" s="9" t="str">
         <f>IF(_name_month_day!J1="","",_name_month_day!J1)</f>
         <v/>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="M3" s="9" t="str">
         <f>IF(_name_month_day!K1="","",_name_month_day!K1)</f>
         <v/>
       </c>
-      <c r="N3" s="8" t="str">
+      <c r="N3" s="9" t="str">
         <f>IF(_name_month_day!L1="","",_name_month_day!L1)</f>
         <v/>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="O3" s="9" t="str">
         <f>IF(_name_month_day!M1="","",_name_month_day!M1)</f>
         <v/>
       </c>
-      <c r="P3" s="8" t="str">
+      <c r="P3" s="9" t="str">
         <f>IF(_name_month_day!N1="","",_name_month_day!N1)</f>
         <v/>
       </c>
-      <c r="Q3" s="8" t="str">
+      <c r="Q3" s="9" t="str">
         <f>IF(_name_month_day!O1="","",_name_month_day!O1)</f>
         <v/>
       </c>
-      <c r="R3" s="8" t="str">
+      <c r="R3" s="9" t="str">
         <f>IF(_name_month_day!P1="","",_name_month_day!P1)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="4">
-      <c r="B4" s="9">
-        <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1)+1)</f>
-        <v>43647</v>
-      </c>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="str">
         <f>IF(_val_month_day!A11="","",_val_month_day!A11)</f>
         <v/>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="11" t="str">
         <f>IF(_val_month_day!B11="","",_val_month_day!B11)</f>
         <v/>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="11" t="str">
         <f>IF(_val_month_day!C11="","",_val_month_day!C11)</f>
         <v/>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="11" t="str">
         <f>IF(_val_month_day!D11="","",_val_month_day!D11)</f>
         <v/>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="G4" s="11" t="str">
         <f>IF(_val_month_day!E11="","",_val_month_day!E11)</f>
         <v/>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="11" t="str">
         <f>IF(_val_month_day!F11="","",_val_month_day!F11)</f>
         <v/>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="I4" s="11" t="str">
         <f>IF(_val_month_day!G11="","",_val_month_day!G11)</f>
         <v/>
       </c>
-      <c r="J4" s="10" t="str">
+      <c r="J4" s="11" t="str">
         <f>IF(_val_month_day!H11="","",_val_month_day!H11)</f>
         <v/>
       </c>
-      <c r="K4" s="10" t="str">
+      <c r="K4" s="11" t="str">
         <f>IF(_val_month_day!I11="","",_val_month_day!I11)</f>
         <v/>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="11" t="str">
         <f>IF(_val_month_day!J11="","",_val_month_day!J11)</f>
         <v/>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="11" t="str">
         <f>IF(_val_month_day!K11="","",_val_month_day!K11)</f>
         <v/>
       </c>
-      <c r="N4" s="10" t="str">
+      <c r="N4" s="11" t="str">
         <f>IF(_val_month_day!L11="","",_val_month_day!L11)</f>
         <v/>
       </c>
-      <c r="O4" s="10" t="str">
+      <c r="O4" s="11" t="str">
         <f>IF(_val_month_day!M11="","",_val_month_day!M11)</f>
         <v/>
       </c>
-      <c r="P4" s="10" t="str">
+      <c r="P4" s="11" t="str">
         <f>IF(_val_month_day!N11="","",_val_month_day!N11)</f>
         <v/>
       </c>
-      <c r="Q4" s="10" t="str">
+      <c r="Q4" s="11" t="str">
         <f>IF(_val_month_day!O11="","",_val_month_day!O11)</f>
         <v/>
       </c>
-      <c r="R4" s="10" t="str">
+      <c r="R4" s="11" t="str">
         <f>IF(_val_month_day!P11="","",_val_month_day!P11)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="5">
-      <c r="B5" s="9">
-        <f ca="1">B4+1</f>
-        <v>43648</v>
-      </c>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="str">
         <f>IF(_val_month_day!A12="","",_val_month_day!A12)</f>
         <v/>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="11" t="str">
         <f>IF(_val_month_day!B12="","",_val_month_day!B12)</f>
         <v/>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="11" t="str">
         <f>IF(_val_month_day!C12="","",_val_month_day!C12)</f>
         <v/>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="11" t="str">
         <f>IF(_val_month_day!D12="","",_val_month_day!D12)</f>
         <v/>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="11" t="str">
         <f>IF(_val_month_day!E12="","",_val_month_day!E12)</f>
         <v/>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="11" t="str">
         <f>IF(_val_month_day!F12="","",_val_month_day!F12)</f>
         <v/>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="11" t="str">
         <f>IF(_val_month_day!G12="","",_val_month_day!G12)</f>
         <v/>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="11" t="str">
         <f>IF(_val_month_day!H12="","",_val_month_day!H12)</f>
         <v/>
       </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="11" t="str">
         <f>IF(_val_month_day!I12="","",_val_month_day!I12)</f>
         <v/>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="11" t="str">
         <f>IF(_val_month_day!J12="","",_val_month_day!J12)</f>
         <v/>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="11" t="str">
         <f>IF(_val_month_day!K12="","",_val_month_day!K12)</f>
         <v/>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="N5" s="11" t="str">
         <f>IF(_val_month_day!L12="","",_val_month_day!L12)</f>
         <v/>
       </c>
-      <c r="O5" s="10" t="str">
+      <c r="O5" s="11" t="str">
         <f>IF(_val_month_day!M12="","",_val_month_day!M12)</f>
         <v/>
       </c>
-      <c r="P5" s="10" t="str">
+      <c r="P5" s="11" t="str">
         <f>IF(_val_month_day!N12="","",_val_month_day!N12)</f>
         <v/>
       </c>
-      <c r="Q5" s="10" t="str">
+      <c r="Q5" s="11" t="str">
         <f>IF(_val_month_day!O12="","",_val_month_day!O12)</f>
         <v/>
       </c>
-      <c r="R5" s="10" t="str">
+      <c r="R5" s="11" t="str">
         <f>IF(_val_month_day!P12="","",_val_month_day!P12)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="6">
-      <c r="B6" s="9">
-        <f ca="1">B5+1</f>
-        <v>43649</v>
-      </c>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="str">
         <f>IF(_val_month_day!A13="","",_val_month_day!A13)</f>
         <v/>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="11" t="str">
         <f>IF(_val_month_day!B13="","",_val_month_day!B13)</f>
         <v/>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="11" t="str">
         <f>IF(_val_month_day!C13="","",_val_month_day!C13)</f>
         <v/>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="11" t="str">
         <f>IF(_val_month_day!D13="","",_val_month_day!D13)</f>
         <v/>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="11" t="str">
         <f>IF(_val_month_day!E13="","",_val_month_day!E13)</f>
         <v/>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="11" t="str">
         <f>IF(_val_month_day!F13="","",_val_month_day!F13)</f>
         <v/>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="11" t="str">
         <f>IF(_val_month_day!G13="","",_val_month_day!G13)</f>
         <v/>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="11" t="str">
         <f>IF(_val_month_day!H13="","",_val_month_day!H13)</f>
         <v/>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="11" t="str">
         <f>IF(_val_month_day!I13="","",_val_month_day!I13)</f>
         <v/>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="11" t="str">
         <f>IF(_val_month_day!J13="","",_val_month_day!J13)</f>
         <v/>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="11" t="str">
         <f>IF(_val_month_day!K13="","",_val_month_day!K13)</f>
         <v/>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="11" t="str">
         <f>IF(_val_month_day!L13="","",_val_month_day!L13)</f>
         <v/>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="11" t="str">
         <f>IF(_val_month_day!M13="","",_val_month_day!M13)</f>
         <v/>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="11" t="str">
         <f>IF(_val_month_day!N13="","",_val_month_day!N13)</f>
         <v/>
       </c>
-      <c r="Q6" s="10" t="str">
+      <c r="Q6" s="11" t="str">
         <f>IF(_val_month_day!O13="","",_val_month_day!O13)</f>
         <v/>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="11" t="str">
         <f>IF(_val_month_day!P13="","",_val_month_day!P13)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="7">
-      <c r="B7" s="9">
-        <f ca="1">B6+1</f>
-        <v>43650</v>
-      </c>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="str">
         <f>IF(_val_month_day!A14="","",_val_month_day!A14)</f>
         <v/>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="11" t="str">
         <f>IF(_val_month_day!B14="","",_val_month_day!B14)</f>
         <v/>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="11" t="str">
         <f>IF(_val_month_day!C14="","",_val_month_day!C14)</f>
         <v/>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="11" t="str">
         <f>IF(_val_month_day!D14="","",_val_month_day!D14)</f>
         <v/>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="11" t="str">
         <f>IF(_val_month_day!E14="","",_val_month_day!E14)</f>
         <v/>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="11" t="str">
         <f>IF(_val_month_day!F14="","",_val_month_day!F14)</f>
         <v/>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="11" t="str">
         <f>IF(_val_month_day!G14="","",_val_month_day!G14)</f>
         <v/>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="11" t="str">
         <f>IF(_val_month_day!H14="","",_val_month_day!H14)</f>
         <v/>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="11" t="str">
         <f>IF(_val_month_day!I14="","",_val_month_day!I14)</f>
         <v/>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="11" t="str">
         <f>IF(_val_month_day!J14="","",_val_month_day!J14)</f>
         <v/>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="11" t="str">
         <f>IF(_val_month_day!K14="","",_val_month_day!K14)</f>
         <v/>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="11" t="str">
         <f>IF(_val_month_day!L14="","",_val_month_day!L14)</f>
         <v/>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="O7" s="11" t="str">
         <f>IF(_val_month_day!M14="","",_val_month_day!M14)</f>
         <v/>
       </c>
-      <c r="P7" s="10" t="str">
+      <c r="P7" s="11" t="str">
         <f>IF(_val_month_day!N14="","",_val_month_day!N14)</f>
         <v/>
       </c>
-      <c r="Q7" s="10" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(_val_month_day!O14="","",_val_month_day!O14)</f>
         <v/>
       </c>
-      <c r="R7" s="10" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(_val_month_day!P14="","",_val_month_day!P14)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="8">
-      <c r="B8" s="9">
-        <f ca="1">B7+1</f>
-        <v>43651</v>
-      </c>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="str">
         <f>IF(_val_month_day!A15="","",_val_month_day!A15)</f>
         <v/>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="11" t="str">
         <f>IF(_val_month_day!B15="","",_val_month_day!B15)</f>
         <v/>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="11" t="str">
         <f>IF(_val_month_day!C15="","",_val_month_day!C15)</f>
         <v/>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="11" t="str">
         <f>IF(_val_month_day!D15="","",_val_month_day!D15)</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="11" t="str">
         <f>IF(_val_month_day!E15="","",_val_month_day!E15)</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="11" t="str">
         <f>IF(_val_month_day!F15="","",_val_month_day!F15)</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="11" t="str">
         <f>IF(_val_month_day!G15="","",_val_month_day!G15)</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="11" t="str">
         <f>IF(_val_month_day!H15="","",_val_month_day!H15)</f>
         <v/>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="11" t="str">
         <f>IF(_val_month_day!I15="","",_val_month_day!I15)</f>
         <v/>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="11" t="str">
         <f>IF(_val_month_day!J15="","",_val_month_day!J15)</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="11" t="str">
         <f>IF(_val_month_day!K15="","",_val_month_day!K15)</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="11" t="str">
         <f>IF(_val_month_day!L15="","",_val_month_day!L15)</f>
         <v/>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="11" t="str">
         <f>IF(_val_month_day!M15="","",_val_month_day!M15)</f>
         <v/>
       </c>
-      <c r="P8" s="10" t="str">
+      <c r="P8" s="11" t="str">
         <f>IF(_val_month_day!N15="","",_val_month_day!N15)</f>
         <v/>
       </c>
-      <c r="Q8" s="10" t="str">
+      <c r="Q8" s="11" t="str">
         <f>IF(_val_month_day!O15="","",_val_month_day!O15)</f>
         <v/>
       </c>
-      <c r="R8" s="10" t="str">
+      <c r="R8" s="11" t="str">
         <f>IF(_val_month_day!P15="","",_val_month_day!P15)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="9">
-      <c r="B9" s="9">
-        <f ca="1">B8+1</f>
-        <v>43652</v>
-      </c>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="str">
         <f>IF(_val_month_day!A16="","",_val_month_day!A16)</f>
         <v/>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="11" t="str">
         <f>IF(_val_month_day!B16="","",_val_month_day!B16)</f>
         <v/>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="11" t="str">
         <f>IF(_val_month_day!C16="","",_val_month_day!C16)</f>
         <v/>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="11" t="str">
         <f>IF(_val_month_day!D16="","",_val_month_day!D16)</f>
         <v/>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="11" t="str">
         <f>IF(_val_month_day!E16="","",_val_month_day!E16)</f>
         <v/>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="11" t="str">
         <f>IF(_val_month_day!F16="","",_val_month_day!F16)</f>
         <v/>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="11" t="str">
         <f>IF(_val_month_day!G16="","",_val_month_day!G16)</f>
         <v/>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="11" t="str">
         <f>IF(_val_month_day!H16="","",_val_month_day!H16)</f>
         <v/>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="11" t="str">
         <f>IF(_val_month_day!I16="","",_val_month_day!I16)</f>
         <v/>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="11" t="str">
         <f>IF(_val_month_day!J16="","",_val_month_day!J16)</f>
         <v/>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="11" t="str">
         <f>IF(_val_month_day!K16="","",_val_month_day!K16)</f>
         <v/>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="11" t="str">
         <f>IF(_val_month_day!L16="","",_val_month_day!L16)</f>
         <v/>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="O9" s="11" t="str">
         <f>IF(_val_month_day!M16="","",_val_month_day!M16)</f>
         <v/>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="P9" s="11" t="str">
         <f>IF(_val_month_day!N16="","",_val_month_day!N16)</f>
         <v/>
       </c>
-      <c r="Q9" s="10" t="str">
+      <c r="Q9" s="11" t="str">
         <f>IF(_val_month_day!O16="","",_val_month_day!O16)</f>
         <v/>
       </c>
-      <c r="R9" s="10" t="str">
+      <c r="R9" s="11" t="str">
         <f>IF(_val_month_day!P16="","",_val_month_day!P16)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="10">
-      <c r="B10" s="9">
-        <f ca="1">B9+1</f>
-        <v>43653</v>
-      </c>
-      <c r="C10" s="10" t="str">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="str">
         <f>IF(_val_month_day!A17="","",_val_month_day!A17)</f>
         <v/>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="11" t="str">
         <f>IF(_val_month_day!B17="","",_val_month_day!B17)</f>
         <v/>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="11" t="str">
         <f>IF(_val_month_day!C17="","",_val_month_day!C17)</f>
         <v/>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="11" t="str">
         <f>IF(_val_month_day!D17="","",_val_month_day!D17)</f>
         <v/>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="11" t="str">
         <f>IF(_val_month_day!E17="","",_val_month_day!E17)</f>
         <v/>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="11" t="str">
         <f>IF(_val_month_day!F17="","",_val_month_day!F17)</f>
         <v/>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="11" t="str">
         <f>IF(_val_month_day!G17="","",_val_month_day!G17)</f>
         <v/>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="11" t="str">
         <f>IF(_val_month_day!H17="","",_val_month_day!H17)</f>
         <v/>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="11" t="str">
         <f>IF(_val_month_day!I17="","",_val_month_day!I17)</f>
         <v/>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="11" t="str">
         <f>IF(_val_month_day!J17="","",_val_month_day!J17)</f>
         <v/>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="11" t="str">
         <f>IF(_val_month_day!K17="","",_val_month_day!K17)</f>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="11" t="str">
         <f>IF(_val_month_day!L17="","",_val_month_day!L17)</f>
         <v/>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="11" t="str">
         <f>IF(_val_month_day!M17="","",_val_month_day!M17)</f>
         <v/>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="11" t="str">
         <f>IF(_val_month_day!N17="","",_val_month_day!N17)</f>
         <v/>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="11" t="str">
         <f>IF(_val_month_day!O17="","",_val_month_day!O17)</f>
         <v/>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="11" t="str">
         <f>IF(_val_month_day!P17="","",_val_month_day!P17)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="11">
-      <c r="B11" s="9">
-        <f ca="1">B10+1</f>
-        <v>43654</v>
-      </c>
-      <c r="C11" s="10" t="str">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="str">
         <f>IF(_val_month_day!A18="","",_val_month_day!A18)</f>
         <v/>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="11" t="str">
         <f>IF(_val_month_day!B18="","",_val_month_day!B18)</f>
         <v/>
       </c>
-      <c r="E11" s="10" t="str">
+      <c r="E11" s="11" t="str">
         <f>IF(_val_month_day!C18="","",_val_month_day!C18)</f>
         <v/>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="11" t="str">
         <f>IF(_val_month_day!D18="","",_val_month_day!D18)</f>
         <v/>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="11" t="str">
         <f>IF(_val_month_day!E18="","",_val_month_day!E18)</f>
         <v/>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="11" t="str">
         <f>IF(_val_month_day!F18="","",_val_month_day!F18)</f>
         <v/>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="11" t="str">
         <f>IF(_val_month_day!G18="","",_val_month_day!G18)</f>
         <v/>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="11" t="str">
         <f>IF(_val_month_day!H18="","",_val_month_day!H18)</f>
         <v/>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="11" t="str">
         <f>IF(_val_month_day!I18="","",_val_month_day!I18)</f>
         <v/>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="11" t="str">
         <f>IF(_val_month_day!J18="","",_val_month_day!J18)</f>
         <v/>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="11" t="str">
         <f>IF(_val_month_day!K18="","",_val_month_day!K18)</f>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="11" t="str">
         <f>IF(_val_month_day!L18="","",_val_month_day!L18)</f>
         <v/>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="O11" s="11" t="str">
         <f>IF(_val_month_day!M18="","",_val_month_day!M18)</f>
         <v/>
       </c>
-      <c r="P11" s="10" t="str">
+      <c r="P11" s="11" t="str">
         <f>IF(_val_month_day!N18="","",_val_month_day!N18)</f>
         <v/>
       </c>
-      <c r="Q11" s="10" t="str">
+      <c r="Q11" s="11" t="str">
         <f>IF(_val_month_day!O18="","",_val_month_day!O18)</f>
         <v/>
       </c>
-      <c r="R11" s="10" t="str">
+      <c r="R11" s="11" t="str">
         <f>IF(_val_month_day!P18="","",_val_month_day!P18)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="12">
-      <c r="B12" s="9">
-        <f ca="1">B11+1</f>
-        <v>43655</v>
-      </c>
-      <c r="C12" s="10" t="str">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="str">
         <f>IF(_val_month_day!A19="","",_val_month_day!A19)</f>
         <v/>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="11" t="str">
         <f>IF(_val_month_day!B19="","",_val_month_day!B19)</f>
         <v/>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="11" t="str">
         <f>IF(_val_month_day!C19="","",_val_month_day!C19)</f>
         <v/>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="11" t="str">
         <f>IF(_val_month_day!D19="","",_val_month_day!D19)</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="11" t="str">
         <f>IF(_val_month_day!E19="","",_val_month_day!E19)</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="11" t="str">
         <f>IF(_val_month_day!F19="","",_val_month_day!F19)</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="11" t="str">
         <f>IF(_val_month_day!G19="","",_val_month_day!G19)</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="11" t="str">
         <f>IF(_val_month_day!H19="","",_val_month_day!H19)</f>
         <v/>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="11" t="str">
         <f>IF(_val_month_day!I19="","",_val_month_day!I19)</f>
         <v/>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="11" t="str">
         <f>IF(_val_month_day!J19="","",_val_month_day!J19)</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="11" t="str">
         <f>IF(_val_month_day!K19="","",_val_month_day!K19)</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="11" t="str">
         <f>IF(_val_month_day!L19="","",_val_month_day!L19)</f>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="11" t="str">
         <f>IF(_val_month_day!M19="","",_val_month_day!M19)</f>
         <v/>
       </c>
-      <c r="P12" s="10" t="str">
+      <c r="P12" s="11" t="str">
         <f>IF(_val_month_day!N19="","",_val_month_day!N19)</f>
         <v/>
       </c>
-      <c r="Q12" s="10" t="str">
+      <c r="Q12" s="11" t="str">
         <f>IF(_val_month_day!O19="","",_val_month_day!O19)</f>
         <v/>
       </c>
-      <c r="R12" s="10" t="str">
+      <c r="R12" s="11" t="str">
         <f>IF(_val_month_day!P19="","",_val_month_day!P19)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="13">
-      <c r="B13" s="9">
-        <f ca="1">B12+1</f>
-        <v>43656</v>
-      </c>
-      <c r="C13" s="10" t="str">
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="str">
         <f>IF(_val_month_day!A20="","",_val_month_day!A20)</f>
         <v/>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="11" t="str">
         <f>IF(_val_month_day!B20="","",_val_month_day!B20)</f>
         <v/>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="11" t="str">
         <f>IF(_val_month_day!C20="","",_val_month_day!C20)</f>
         <v/>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="11" t="str">
         <f>IF(_val_month_day!D20="","",_val_month_day!D20)</f>
         <v/>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="11" t="str">
         <f>IF(_val_month_day!E20="","",_val_month_day!E20)</f>
         <v/>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="11" t="str">
         <f>IF(_val_month_day!F20="","",_val_month_day!F20)</f>
         <v/>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="11" t="str">
         <f>IF(_val_month_day!G20="","",_val_month_day!G20)</f>
         <v/>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="11" t="str">
         <f>IF(_val_month_day!H20="","",_val_month_day!H20)</f>
         <v/>
       </c>
-      <c r="K13" s="10" t="str">
+      <c r="K13" s="11" t="str">
         <f>IF(_val_month_day!I20="","",_val_month_day!I20)</f>
         <v/>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="11" t="str">
         <f>IF(_val_month_day!J20="","",_val_month_day!J20)</f>
         <v/>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="11" t="str">
         <f>IF(_val_month_day!K20="","",_val_month_day!K20)</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="11" t="str">
         <f>IF(_val_month_day!L20="","",_val_month_day!L20)</f>
         <v/>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="11" t="str">
         <f>IF(_val_month_day!M20="","",_val_month_day!M20)</f>
         <v/>
       </c>
-      <c r="P13" s="10" t="str">
+      <c r="P13" s="11" t="str">
         <f>IF(_val_month_day!N20="","",_val_month_day!N20)</f>
         <v/>
       </c>
-      <c r="Q13" s="10" t="str">
+      <c r="Q13" s="11" t="str">
         <f>IF(_val_month_day!O20="","",_val_month_day!O20)</f>
         <v/>
       </c>
-      <c r="R13" s="10" t="str">
+      <c r="R13" s="11" t="str">
         <f>IF(_val_month_day!P20="","",_val_month_day!P20)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="14">
-      <c r="B14" s="9">
-        <f ca="1">B13+1</f>
-        <v>43657</v>
-      </c>
-      <c r="C14" s="10" t="str">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="str">
         <f>IF(_val_month_day!A21="","",_val_month_day!A21)</f>
         <v/>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="11" t="str">
         <f>IF(_val_month_day!B21="","",_val_month_day!B21)</f>
         <v/>
       </c>
-      <c r="E14" s="10" t="str">
+      <c r="E14" s="11" t="str">
         <f>IF(_val_month_day!C21="","",_val_month_day!C21)</f>
         <v/>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="11" t="str">
         <f>IF(_val_month_day!D21="","",_val_month_day!D21)</f>
         <v/>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="11" t="str">
         <f>IF(_val_month_day!E21="","",_val_month_day!E21)</f>
         <v/>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="11" t="str">
         <f>IF(_val_month_day!F21="","",_val_month_day!F21)</f>
         <v/>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="11" t="str">
         <f>IF(_val_month_day!G21="","",_val_month_day!G21)</f>
         <v/>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="11" t="str">
         <f>IF(_val_month_day!H21="","",_val_month_day!H21)</f>
         <v/>
       </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="11" t="str">
         <f>IF(_val_month_day!I21="","",_val_month_day!I21)</f>
         <v/>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="11" t="str">
         <f>IF(_val_month_day!J21="","",_val_month_day!J21)</f>
         <v/>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="11" t="str">
         <f>IF(_val_month_day!K21="","",_val_month_day!K21)</f>
         <v/>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="11" t="str">
         <f>IF(_val_month_day!L21="","",_val_month_day!L21)</f>
         <v/>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="11" t="str">
         <f>IF(_val_month_day!M21="","",_val_month_day!M21)</f>
         <v/>
       </c>
-      <c r="P14" s="10" t="str">
+      <c r="P14" s="11" t="str">
         <f>IF(_val_month_day!N21="","",_val_month_day!N21)</f>
         <v/>
       </c>
-      <c r="Q14" s="10" t="str">
+      <c r="Q14" s="11" t="str">
         <f>IF(_val_month_day!O21="","",_val_month_day!O21)</f>
         <v/>
       </c>
-      <c r="R14" s="10" t="str">
+      <c r="R14" s="11" t="str">
         <f>IF(_val_month_day!P21="","",_val_month_day!P21)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="15">
-      <c r="B15" s="9">
-        <f ca="1">B14+1</f>
-        <v>43658</v>
-      </c>
-      <c r="C15" s="10" t="str">
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="str">
         <f>IF(_val_month_day!A22="","",_val_month_day!A22)</f>
         <v/>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="11" t="str">
         <f>IF(_val_month_day!B22="","",_val_month_day!B22)</f>
         <v/>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="11" t="str">
         <f>IF(_val_month_day!C22="","",_val_month_day!C22)</f>
         <v/>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="11" t="str">
         <f>IF(_val_month_day!D22="","",_val_month_day!D22)</f>
         <v/>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="11" t="str">
         <f>IF(_val_month_day!E22="","",_val_month_day!E22)</f>
         <v/>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="11" t="str">
         <f>IF(_val_month_day!F22="","",_val_month_day!F22)</f>
         <v/>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="11" t="str">
         <f>IF(_val_month_day!G22="","",_val_month_day!G22)</f>
         <v/>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="11" t="str">
         <f>IF(_val_month_day!H22="","",_val_month_day!H22)</f>
         <v/>
       </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="11" t="str">
         <f>IF(_val_month_day!I22="","",_val_month_day!I22)</f>
         <v/>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="11" t="str">
         <f>IF(_val_month_day!J22="","",_val_month_day!J22)</f>
         <v/>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="11" t="str">
         <f>IF(_val_month_day!K22="","",_val_month_day!K22)</f>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="11" t="str">
         <f>IF(_val_month_day!L22="","",_val_month_day!L22)</f>
         <v/>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="11" t="str">
         <f>IF(_val_month_day!M22="","",_val_month_day!M22)</f>
         <v/>
       </c>
-      <c r="P15" s="10" t="str">
+      <c r="P15" s="11" t="str">
         <f>IF(_val_month_day!N22="","",_val_month_day!N22)</f>
         <v/>
       </c>
-      <c r="Q15" s="10" t="str">
+      <c r="Q15" s="11" t="str">
         <f>IF(_val_month_day!O22="","",_val_month_day!O22)</f>
         <v/>
       </c>
-      <c r="R15" s="10" t="str">
+      <c r="R15" s="11" t="str">
         <f>IF(_val_month_day!P22="","",_val_month_day!P22)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="16">
-      <c r="B16" s="9">
-        <f ca="1">B15+1</f>
-        <v>43659</v>
-      </c>
-      <c r="C16" s="10" t="str">
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="str">
         <f>IF(_val_month_day!A23="","",_val_month_day!A23)</f>
         <v/>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="11" t="str">
         <f>IF(_val_month_day!B23="","",_val_month_day!B23)</f>
         <v/>
       </c>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="11" t="str">
         <f>IF(_val_month_day!C23="","",_val_month_day!C23)</f>
         <v/>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="11" t="str">
         <f>IF(_val_month_day!D23="","",_val_month_day!D23)</f>
         <v/>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="11" t="str">
         <f>IF(_val_month_day!E23="","",_val_month_day!E23)</f>
         <v/>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="11" t="str">
         <f>IF(_val_month_day!F23="","",_val_month_day!F23)</f>
         <v/>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="11" t="str">
         <f>IF(_val_month_day!G23="","",_val_month_day!G23)</f>
         <v/>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="11" t="str">
         <f>IF(_val_month_day!H23="","",_val_month_day!H23)</f>
         <v/>
       </c>
-      <c r="K16" s="10" t="str">
+      <c r="K16" s="11" t="str">
         <f>IF(_val_month_day!I23="","",_val_month_day!I23)</f>
         <v/>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="11" t="str">
         <f>IF(_val_month_day!J23="","",_val_month_day!J23)</f>
         <v/>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="11" t="str">
         <f>IF(_val_month_day!K23="","",_val_month_day!K23)</f>
         <v/>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="11" t="str">
         <f>IF(_val_month_day!L23="","",_val_month_day!L23)</f>
         <v/>
       </c>
-      <c r="O16" s="10" t="str">
+      <c r="O16" s="11" t="str">
         <f>IF(_val_month_day!M23="","",_val_month_day!M23)</f>
         <v/>
       </c>
-      <c r="P16" s="10" t="str">
+      <c r="P16" s="11" t="str">
         <f>IF(_val_month_day!N23="","",_val_month_day!N23)</f>
         <v/>
       </c>
-      <c r="Q16" s="10" t="str">
+      <c r="Q16" s="11" t="str">
         <f>IF(_val_month_day!O23="","",_val_month_day!O23)</f>
         <v/>
       </c>
-      <c r="R16" s="10" t="str">
+      <c r="R16" s="11" t="str">
         <f>IF(_val_month_day!P23="","",_val_month_day!P23)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="17">
-      <c r="B17" s="9">
-        <f ca="1">B16+1</f>
-        <v>43660</v>
-      </c>
-      <c r="C17" s="10" t="str">
+      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="str">
         <f>IF(_val_month_day!A24="","",_val_month_day!A24)</f>
         <v/>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="11" t="str">
         <f>IF(_val_month_day!B24="","",_val_month_day!B24)</f>
         <v/>
       </c>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="11" t="str">
         <f>IF(_val_month_day!C24="","",_val_month_day!C24)</f>
         <v/>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="11" t="str">
         <f>IF(_val_month_day!D24="","",_val_month_day!D24)</f>
         <v/>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="11" t="str">
         <f>IF(_val_month_day!E24="","",_val_month_day!E24)</f>
         <v/>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="11" t="str">
         <f>IF(_val_month_day!F24="","",_val_month_day!F24)</f>
         <v/>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="11" t="str">
         <f>IF(_val_month_day!G24="","",_val_month_day!G24)</f>
         <v/>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="11" t="str">
         <f>IF(_val_month_day!H24="","",_val_month_day!H24)</f>
         <v/>
       </c>
-      <c r="K17" s="10" t="str">
+      <c r="K17" s="11" t="str">
         <f>IF(_val_month_day!I24="","",_val_month_day!I24)</f>
         <v/>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="11" t="str">
         <f>IF(_val_month_day!J24="","",_val_month_day!J24)</f>
         <v/>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="11" t="str">
         <f>IF(_val_month_day!K24="","",_val_month_day!K24)</f>
         <v/>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="11" t="str">
         <f>IF(_val_month_day!L24="","",_val_month_day!L24)</f>
         <v/>
       </c>
-      <c r="O17" s="10" t="str">
+      <c r="O17" s="11" t="str">
         <f>IF(_val_month_day!M24="","",_val_month_day!M24)</f>
         <v/>
       </c>
-      <c r="P17" s="10" t="str">
+      <c r="P17" s="11" t="str">
         <f>IF(_val_month_day!N24="","",_val_month_day!N24)</f>
         <v/>
       </c>
-      <c r="Q17" s="10" t="str">
+      <c r="Q17" s="11" t="str">
         <f>IF(_val_month_day!O24="","",_val_month_day!O24)</f>
         <v/>
       </c>
-      <c r="R17" s="10" t="str">
+      <c r="R17" s="11" t="str">
         <f>IF(_val_month_day!P24="","",_val_month_day!P24)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="18">
-      <c r="B18" s="9">
-        <f ca="1">B17+1</f>
-        <v>43661</v>
-      </c>
-      <c r="C18" s="10" t="str">
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="str">
         <f>IF(_val_month_day!A25="","",_val_month_day!A25)</f>
         <v/>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="11" t="str">
         <f>IF(_val_month_day!B25="","",_val_month_day!B25)</f>
         <v/>
       </c>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="11" t="str">
         <f>IF(_val_month_day!C25="","",_val_month_day!C25)</f>
         <v/>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="11" t="str">
         <f>IF(_val_month_day!D25="","",_val_month_day!D25)</f>
         <v/>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="11" t="str">
         <f>IF(_val_month_day!E25="","",_val_month_day!E25)</f>
         <v/>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="11" t="str">
         <f>IF(_val_month_day!F25="","",_val_month_day!F25)</f>
         <v/>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="11" t="str">
         <f>IF(_val_month_day!G25="","",_val_month_day!G25)</f>
         <v/>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="11" t="str">
         <f>IF(_val_month_day!H25="","",_val_month_day!H25)</f>
         <v/>
       </c>
-      <c r="K18" s="10" t="str">
+      <c r="K18" s="11" t="str">
         <f>IF(_val_month_day!I25="","",_val_month_day!I25)</f>
         <v/>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="11" t="str">
         <f>IF(_val_month_day!J25="","",_val_month_day!J25)</f>
         <v/>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="11" t="str">
         <f>IF(_val_month_day!K25="","",_val_month_day!K25)</f>
         <v/>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="11" t="str">
         <f>IF(_val_month_day!L25="","",_val_month_day!L25)</f>
         <v/>
       </c>
-      <c r="O18" s="10" t="str">
+      <c r="O18" s="11" t="str">
         <f>IF(_val_month_day!M25="","",_val_month_day!M25)</f>
         <v/>
       </c>
-      <c r="P18" s="10" t="str">
+      <c r="P18" s="11" t="str">
         <f>IF(_val_month_day!N25="","",_val_month_day!N25)</f>
         <v/>
       </c>
-      <c r="Q18" s="10" t="str">
+      <c r="Q18" s="11" t="str">
         <f>IF(_val_month_day!O25="","",_val_month_day!O25)</f>
         <v/>
       </c>
-      <c r="R18" s="10" t="str">
+      <c r="R18" s="11" t="str">
         <f>IF(_val_month_day!P25="","",_val_month_day!P25)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="19">
-      <c r="B19" s="9">
-        <f ca="1">B18+1</f>
-        <v>43662</v>
-      </c>
-      <c r="C19" s="10" t="str">
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="str">
         <f>IF(_val_month_day!A26="","",_val_month_day!A26)</f>
         <v/>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="11" t="str">
         <f>IF(_val_month_day!B26="","",_val_month_day!B26)</f>
         <v/>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="11" t="str">
         <f>IF(_val_month_day!C26="","",_val_month_day!C26)</f>
         <v/>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="11" t="str">
         <f>IF(_val_month_day!D26="","",_val_month_day!D26)</f>
         <v/>
       </c>
-      <c r="G19" s="10" t="str">
+      <c r="G19" s="11" t="str">
         <f>IF(_val_month_day!E26="","",_val_month_day!E26)</f>
         <v/>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="11" t="str">
         <f>IF(_val_month_day!F26="","",_val_month_day!F26)</f>
         <v/>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="11" t="str">
         <f>IF(_val_month_day!G26="","",_val_month_day!G26)</f>
         <v/>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="11" t="str">
         <f>IF(_val_month_day!H26="","",_val_month_day!H26)</f>
         <v/>
       </c>
-      <c r="K19" s="10" t="str">
+      <c r="K19" s="11" t="str">
         <f>IF(_val_month_day!I26="","",_val_month_day!I26)</f>
         <v/>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="11" t="str">
         <f>IF(_val_month_day!J26="","",_val_month_day!J26)</f>
         <v/>
       </c>
-      <c r="M19" s="10" t="str">
+      <c r="M19" s="11" t="str">
         <f>IF(_val_month_day!K26="","",_val_month_day!K26)</f>
         <v/>
       </c>
-      <c r="N19" s="10" t="str">
+      <c r="N19" s="11" t="str">
         <f>IF(_val_month_day!L26="","",_val_month_day!L26)</f>
         <v/>
       </c>
-      <c r="O19" s="10" t="str">
+      <c r="O19" s="11" t="str">
         <f>IF(_val_month_day!M26="","",_val_month_day!M26)</f>
         <v/>
       </c>
-      <c r="P19" s="10" t="str">
+      <c r="P19" s="11" t="str">
         <f>IF(_val_month_day!N26="","",_val_month_day!N26)</f>
         <v/>
       </c>
-      <c r="Q19" s="10" t="str">
+      <c r="Q19" s="11" t="str">
         <f>IF(_val_month_day!O26="","",_val_month_day!O26)</f>
         <v/>
       </c>
-      <c r="R19" s="10" t="str">
+      <c r="R19" s="11" t="str">
         <f>IF(_val_month_day!P26="","",_val_month_day!P26)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="20">
-      <c r="B20" s="9">
-        <f ca="1">B19+1</f>
-        <v>43663</v>
-      </c>
-      <c r="C20" s="10" t="str">
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="str">
         <f>IF(_val_month_day!A27="","",_val_month_day!A27)</f>
         <v/>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="11" t="str">
         <f>IF(_val_month_day!B27="","",_val_month_day!B27)</f>
         <v/>
       </c>
-      <c r="E20" s="10" t="str">
+      <c r="E20" s="11" t="str">
         <f>IF(_val_month_day!C27="","",_val_month_day!C27)</f>
         <v/>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="11" t="str">
         <f>IF(_val_month_day!D27="","",_val_month_day!D27)</f>
         <v/>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G20" s="11" t="str">
         <f>IF(_val_month_day!E27="","",_val_month_day!E27)</f>
         <v/>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="11" t="str">
         <f>IF(_val_month_day!F27="","",_val_month_day!F27)</f>
         <v/>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="I20" s="11" t="str">
         <f>IF(_val_month_day!G27="","",_val_month_day!G27)</f>
         <v/>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="11" t="str">
         <f>IF(_val_month_day!H27="","",_val_month_day!H27)</f>
         <v/>
       </c>
-      <c r="K20" s="10" t="str">
+      <c r="K20" s="11" t="str">
         <f>IF(_val_month_day!I27="","",_val_month_day!I27)</f>
         <v/>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="11" t="str">
         <f>IF(_val_month_day!J27="","",_val_month_day!J27)</f>
         <v/>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="11" t="str">
         <f>IF(_val_month_day!K27="","",_val_month_day!K27)</f>
         <v/>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N20" s="11" t="str">
         <f>IF(_val_month_day!L27="","",_val_month_day!L27)</f>
         <v/>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="11" t="str">
         <f>IF(_val_month_day!M27="","",_val_month_day!M27)</f>
         <v/>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P20" s="11" t="str">
         <f>IF(_val_month_day!N27="","",_val_month_day!N27)</f>
         <v/>
       </c>
-      <c r="Q20" s="10" t="str">
+      <c r="Q20" s="11" t="str">
         <f>IF(_val_month_day!O27="","",_val_month_day!O27)</f>
         <v/>
       </c>
-      <c r="R20" s="10" t="str">
+      <c r="R20" s="11" t="str">
         <f>IF(_val_month_day!P27="","",_val_month_day!P27)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="21">
-      <c r="B21" s="9">
-        <f ca="1">B20+1</f>
-        <v>43664</v>
-      </c>
-      <c r="C21" s="10" t="str">
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="str">
         <f>IF(_val_month_day!A28="","",_val_month_day!A28)</f>
         <v/>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="11" t="str">
         <f>IF(_val_month_day!B28="","",_val_month_day!B28)</f>
         <v/>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="11" t="str">
         <f>IF(_val_month_day!C28="","",_val_month_day!C28)</f>
         <v/>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="F21" s="11" t="str">
         <f>IF(_val_month_day!D28="","",_val_month_day!D28)</f>
         <v/>
       </c>
-      <c r="G21" s="10" t="str">
+      <c r="G21" s="11" t="str">
         <f>IF(_val_month_day!E28="","",_val_month_day!E28)</f>
         <v/>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="11" t="str">
         <f>IF(_val_month_day!F28="","",_val_month_day!F28)</f>
         <v/>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I21" s="11" t="str">
         <f>IF(_val_month_day!G28="","",_val_month_day!G28)</f>
         <v/>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="11" t="str">
         <f>IF(_val_month_day!H28="","",_val_month_day!H28)</f>
         <v/>
       </c>
-      <c r="K21" s="10" t="str">
+      <c r="K21" s="11" t="str">
         <f>IF(_val_month_day!I28="","",_val_month_day!I28)</f>
         <v/>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="11" t="str">
         <f>IF(_val_month_day!J28="","",_val_month_day!J28)</f>
         <v/>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="11" t="str">
         <f>IF(_val_month_day!K28="","",_val_month_day!K28)</f>
         <v/>
       </c>
-      <c r="N21" s="10" t="str">
+      <c r="N21" s="11" t="str">
         <f>IF(_val_month_day!L28="","",_val_month_day!L28)</f>
         <v/>
       </c>
-      <c r="O21" s="10" t="str">
+      <c r="O21" s="11" t="str">
         <f>IF(_val_month_day!M28="","",_val_month_day!M28)</f>
         <v/>
       </c>
-      <c r="P21" s="10" t="str">
+      <c r="P21" s="11" t="str">
         <f>IF(_val_month_day!N28="","",_val_month_day!N28)</f>
         <v/>
       </c>
-      <c r="Q21" s="10" t="str">
+      <c r="Q21" s="11" t="str">
         <f>IF(_val_month_day!O28="","",_val_month_day!O28)</f>
         <v/>
       </c>
-      <c r="R21" s="10" t="str">
+      <c r="R21" s="11" t="str">
         <f>IF(_val_month_day!P28="","",_val_month_day!P28)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="22">
-      <c r="B22" s="9">
-        <f ca="1">B21+1</f>
-        <v>43665</v>
-      </c>
-      <c r="C22" s="10" t="str">
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="str">
         <f>IF(_val_month_day!A29="","",_val_month_day!A29)</f>
         <v/>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="D22" s="11" t="str">
         <f>IF(_val_month_day!B29="","",_val_month_day!B29)</f>
         <v/>
       </c>
-      <c r="E22" s="10" t="str">
+      <c r="E22" s="11" t="str">
         <f>IF(_val_month_day!C29="","",_val_month_day!C29)</f>
         <v/>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="11" t="str">
         <f>IF(_val_month_day!D29="","",_val_month_day!D29)</f>
         <v/>
       </c>
-      <c r="G22" s="10" t="str">
+      <c r="G22" s="11" t="str">
         <f>IF(_val_month_day!E29="","",_val_month_day!E29)</f>
         <v/>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H22" s="11" t="str">
         <f>IF(_val_month_day!F29="","",_val_month_day!F29)</f>
         <v/>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="11" t="str">
         <f>IF(_val_month_day!G29="","",_val_month_day!G29)</f>
         <v/>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="11" t="str">
         <f>IF(_val_month_day!H29="","",_val_month_day!H29)</f>
         <v/>
       </c>
-      <c r="K22" s="10" t="str">
+      <c r="K22" s="11" t="str">
         <f>IF(_val_month_day!I29="","",_val_month_day!I29)</f>
         <v/>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="11" t="str">
         <f>IF(_val_month_day!J29="","",_val_month_day!J29)</f>
         <v/>
       </c>
-      <c r="M22" s="10" t="str">
+      <c r="M22" s="11" t="str">
         <f>IF(_val_month_day!K29="","",_val_month_day!K29)</f>
         <v/>
       </c>
-      <c r="N22" s="10" t="str">
+      <c r="N22" s="11" t="str">
         <f>IF(_val_month_day!L29="","",_val_month_day!L29)</f>
         <v/>
       </c>
-      <c r="O22" s="10" t="str">
+      <c r="O22" s="11" t="str">
         <f>IF(_val_month_day!M29="","",_val_month_day!M29)</f>
         <v/>
       </c>
-      <c r="P22" s="10" t="str">
+      <c r="P22" s="11" t="str">
         <f>IF(_val_month_day!N29="","",_val_month_day!N29)</f>
         <v/>
       </c>
-      <c r="Q22" s="10" t="str">
+      <c r="Q22" s="11" t="str">
         <f>IF(_val_month_day!O29="","",_val_month_day!O29)</f>
         <v/>
       </c>
-      <c r="R22" s="10" t="str">
+      <c r="R22" s="11" t="str">
         <f>IF(_val_month_day!P29="","",_val_month_day!P29)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="23">
-      <c r="B23" s="9">
-        <f ca="1">B22+1</f>
-        <v>43666</v>
-      </c>
-      <c r="C23" s="10" t="str">
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="str">
         <f>IF(_val_month_day!A30="","",_val_month_day!A30)</f>
         <v/>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="11" t="str">
         <f>IF(_val_month_day!B30="","",_val_month_day!B30)</f>
         <v/>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E23" s="11" t="str">
         <f>IF(_val_month_day!C30="","",_val_month_day!C30)</f>
         <v/>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F23" s="11" t="str">
         <f>IF(_val_month_day!D30="","",_val_month_day!D30)</f>
         <v/>
       </c>
-      <c r="G23" s="10" t="str">
+      <c r="G23" s="11" t="str">
         <f>IF(_val_month_day!E30="","",_val_month_day!E30)</f>
         <v/>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H23" s="11" t="str">
         <f>IF(_val_month_day!F30="","",_val_month_day!F30)</f>
         <v/>
       </c>
-      <c r="I23" s="10" t="str">
+      <c r="I23" s="11" t="str">
         <f>IF(_val_month_day!G30="","",_val_month_day!G30)</f>
         <v/>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="11" t="str">
         <f>IF(_val_month_day!H30="","",_val_month_day!H30)</f>
         <v/>
       </c>
-      <c r="K23" s="10" t="str">
+      <c r="K23" s="11" t="str">
         <f>IF(_val_month_day!I30="","",_val_month_day!I30)</f>
         <v/>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="11" t="str">
         <f>IF(_val_month_day!J30="","",_val_month_day!J30)</f>
         <v/>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="11" t="str">
         <f>IF(_val_month_day!K30="","",_val_month_day!K30)</f>
         <v/>
       </c>
-      <c r="N23" s="10" t="str">
+      <c r="N23" s="11" t="str">
         <f>IF(_val_month_day!L30="","",_val_month_day!L30)</f>
         <v/>
       </c>
-      <c r="O23" s="10" t="str">
+      <c r="O23" s="11" t="str">
         <f>IF(_val_month_day!M30="","",_val_month_day!M30)</f>
         <v/>
       </c>
-      <c r="P23" s="10" t="str">
+      <c r="P23" s="11" t="str">
         <f>IF(_val_month_day!N30="","",_val_month_day!N30)</f>
         <v/>
       </c>
-      <c r="Q23" s="10" t="str">
+      <c r="Q23" s="11" t="str">
         <f>IF(_val_month_day!O30="","",_val_month_day!O30)</f>
         <v/>
       </c>
-      <c r="R23" s="10" t="str">
+      <c r="R23" s="11" t="str">
         <f>IF(_val_month_day!P30="","",_val_month_day!P30)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="24">
-      <c r="B24" s="9">
-        <f ca="1">B23+1</f>
-        <v>43667</v>
-      </c>
-      <c r="C24" s="10" t="str">
+      <c r="B24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="str">
         <f>IF(_val_month_day!A31="","",_val_month_day!A31)</f>
         <v/>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="11" t="str">
         <f>IF(_val_month_day!B31="","",_val_month_day!B31)</f>
         <v/>
       </c>
-      <c r="E24" s="10" t="str">
+      <c r="E24" s="11" t="str">
         <f>IF(_val_month_day!C31="","",_val_month_day!C31)</f>
         <v/>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="F24" s="11" t="str">
         <f>IF(_val_month_day!D31="","",_val_month_day!D31)</f>
         <v/>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="G24" s="11" t="str">
         <f>IF(_val_month_day!E31="","",_val_month_day!E31)</f>
         <v/>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="H24" s="11" t="str">
         <f>IF(_val_month_day!F31="","",_val_month_day!F31)</f>
         <v/>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I24" s="11" t="str">
         <f>IF(_val_month_day!G31="","",_val_month_day!G31)</f>
         <v/>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="11" t="str">
         <f>IF(_val_month_day!H31="","",_val_month_day!H31)</f>
         <v/>
       </c>
-      <c r="K24" s="10" t="str">
+      <c r="K24" s="11" t="str">
         <f>IF(_val_month_day!I31="","",_val_month_day!I31)</f>
         <v/>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="11" t="str">
         <f>IF(_val_month_day!J31="","",_val_month_day!J31)</f>
         <v/>
       </c>
-      <c r="M24" s="10" t="str">
+      <c r="M24" s="11" t="str">
         <f>IF(_val_month_day!K31="","",_val_month_day!K31)</f>
         <v/>
       </c>
-      <c r="N24" s="10" t="str">
+      <c r="N24" s="11" t="str">
         <f>IF(_val_month_day!L31="","",_val_month_day!L31)</f>
         <v/>
       </c>
-      <c r="O24" s="10" t="str">
+      <c r="O24" s="11" t="str">
         <f>IF(_val_month_day!M31="","",_val_month_day!M31)</f>
         <v/>
       </c>
-      <c r="P24" s="10" t="str">
+      <c r="P24" s="11" t="str">
         <f>IF(_val_month_day!N31="","",_val_month_day!N31)</f>
         <v/>
       </c>
-      <c r="Q24" s="10" t="str">
+      <c r="Q24" s="11" t="str">
         <f>IF(_val_month_day!O31="","",_val_month_day!O31)</f>
         <v/>
       </c>
-      <c r="R24" s="10" t="str">
+      <c r="R24" s="11" t="str">
         <f>IF(_val_month_day!P31="","",_val_month_day!P31)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="25">
-      <c r="B25" s="9">
-        <f ca="1">B24+1</f>
-        <v>43668</v>
-      </c>
-      <c r="C25" s="10" t="str">
+      <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="str">
         <f>IF(_val_month_day!A32="","",_val_month_day!A32)</f>
         <v/>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="11" t="str">
         <f>IF(_val_month_day!B32="","",_val_month_day!B32)</f>
         <v/>
       </c>
-      <c r="E25" s="10" t="str">
+      <c r="E25" s="11" t="str">
         <f>IF(_val_month_day!C32="","",_val_month_day!C32)</f>
         <v/>
       </c>
-      <c r="F25" s="10" t="str">
+      <c r="F25" s="11" t="str">
         <f>IF(_val_month_day!D32="","",_val_month_day!D32)</f>
         <v/>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="11" t="str">
         <f>IF(_val_month_day!E32="","",_val_month_day!E32)</f>
         <v/>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="H25" s="11" t="str">
         <f>IF(_val_month_day!F32="","",_val_month_day!F32)</f>
         <v/>
       </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="11" t="str">
         <f>IF(_val_month_day!G32="","",_val_month_day!G32)</f>
         <v/>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J25" s="11" t="str">
         <f>IF(_val_month_day!H32="","",_val_month_day!H32)</f>
         <v/>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="K25" s="11" t="str">
         <f>IF(_val_month_day!I32="","",_val_month_day!I32)</f>
         <v/>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="11" t="str">
         <f>IF(_val_month_day!J32="","",_val_month_day!J32)</f>
         <v/>
       </c>
-      <c r="M25" s="10" t="str">
+      <c r="M25" s="11" t="str">
         <f>IF(_val_month_day!K32="","",_val_month_day!K32)</f>
         <v/>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N25" s="11" t="str">
         <f>IF(_val_month_day!L32="","",_val_month_day!L32)</f>
         <v/>
       </c>
-      <c r="O25" s="10" t="str">
+      <c r="O25" s="11" t="str">
         <f>IF(_val_month_day!M32="","",_val_month_day!M32)</f>
         <v/>
       </c>
-      <c r="P25" s="10" t="str">
+      <c r="P25" s="11" t="str">
         <f>IF(_val_month_day!N32="","",_val_month_day!N32)</f>
         <v/>
       </c>
-      <c r="Q25" s="10" t="str">
+      <c r="Q25" s="11" t="str">
         <f>IF(_val_month_day!O32="","",_val_month_day!O32)</f>
         <v/>
       </c>
-      <c r="R25" s="10" t="str">
+      <c r="R25" s="11" t="str">
         <f>IF(_val_month_day!P32="","",_val_month_day!P32)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="26">
-      <c r="B26" s="9">
-        <f ca="1">B25+1</f>
-        <v>43669</v>
-      </c>
-      <c r="C26" s="10" t="str">
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="str">
         <f>IF(_val_month_day!A33="","",_val_month_day!A33)</f>
         <v/>
       </c>
-      <c r="D26" s="10" t="str">
+      <c r="D26" s="11" t="str">
         <f>IF(_val_month_day!B33="","",_val_month_day!B33)</f>
         <v/>
       </c>
-      <c r="E26" s="10" t="str">
+      <c r="E26" s="11" t="str">
         <f>IF(_val_month_day!C33="","",_val_month_day!C33)</f>
         <v/>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F26" s="11" t="str">
         <f>IF(_val_month_day!D33="","",_val_month_day!D33)</f>
         <v/>
       </c>
-      <c r="G26" s="10" t="str">
+      <c r="G26" s="11" t="str">
         <f>IF(_val_month_day!E33="","",_val_month_day!E33)</f>
         <v/>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="H26" s="11" t="str">
         <f>IF(_val_month_day!F33="","",_val_month_day!F33)</f>
         <v/>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="11" t="str">
         <f>IF(_val_month_day!G33="","",_val_month_day!G33)</f>
         <v/>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="11" t="str">
         <f>IF(_val_month_day!H33="","",_val_month_day!H33)</f>
         <v/>
       </c>
-      <c r="K26" s="10" t="str">
+      <c r="K26" s="11" t="str">
         <f>IF(_val_month_day!I33="","",_val_month_day!I33)</f>
         <v/>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="11" t="str">
         <f>IF(_val_month_day!J33="","",_val_month_day!J33)</f>
         <v/>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="11" t="str">
         <f>IF(_val_month_day!K33="","",_val_month_day!K33)</f>
         <v/>
       </c>
-      <c r="N26" s="10" t="str">
+      <c r="N26" s="11" t="str">
         <f>IF(_val_month_day!L33="","",_val_month_day!L33)</f>
         <v/>
       </c>
-      <c r="O26" s="10" t="str">
+      <c r="O26" s="11" t="str">
         <f>IF(_val_month_day!M33="","",_val_month_day!M33)</f>
         <v/>
       </c>
-      <c r="P26" s="10" t="str">
+      <c r="P26" s="11" t="str">
         <f>IF(_val_month_day!N33="","",_val_month_day!N33)</f>
         <v/>
       </c>
-      <c r="Q26" s="10" t="str">
+      <c r="Q26" s="11" t="str">
         <f>IF(_val_month_day!O33="","",_val_month_day!O33)</f>
         <v/>
       </c>
-      <c r="R26" s="10" t="str">
+      <c r="R26" s="11" t="str">
         <f>IF(_val_month_day!P33="","",_val_month_day!P33)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="27">
-      <c r="B27" s="9">
-        <f ca="1">B26+1</f>
-        <v>43670</v>
-      </c>
-      <c r="C27" s="10" t="str">
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11" t="str">
         <f>IF(_val_month_day!A34="","",_val_month_day!A34)</f>
         <v/>
       </c>
-      <c r="D27" s="10" t="str">
+      <c r="D27" s="11" t="str">
         <f>IF(_val_month_day!B34="","",_val_month_day!B34)</f>
         <v/>
       </c>
-      <c r="E27" s="10" t="str">
+      <c r="E27" s="11" t="str">
         <f>IF(_val_month_day!C34="","",_val_month_day!C34)</f>
         <v/>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F27" s="11" t="str">
         <f>IF(_val_month_day!D34="","",_val_month_day!D34)</f>
         <v/>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="11" t="str">
         <f>IF(_val_month_day!E34="","",_val_month_day!E34)</f>
         <v/>
       </c>
-      <c r="H27" s="10" t="str">
+      <c r="H27" s="11" t="str">
         <f>IF(_val_month_day!F34="","",_val_month_day!F34)</f>
         <v/>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="11" t="str">
         <f>IF(_val_month_day!G34="","",_val_month_day!G34)</f>
         <v/>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="11" t="str">
         <f>IF(_val_month_day!H34="","",_val_month_day!H34)</f>
         <v/>
       </c>
-      <c r="K27" s="10" t="str">
+      <c r="K27" s="11" t="str">
         <f>IF(_val_month_day!I34="","",_val_month_day!I34)</f>
         <v/>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="11" t="str">
         <f>IF(_val_month_day!J34="","",_val_month_day!J34)</f>
         <v/>
       </c>
-      <c r="M27" s="10" t="str">
+      <c r="M27" s="11" t="str">
         <f>IF(_val_month_day!K34="","",_val_month_day!K34)</f>
         <v/>
       </c>
-      <c r="N27" s="10" t="str">
+      <c r="N27" s="11" t="str">
         <f>IF(_val_month_day!L34="","",_val_month_day!L34)</f>
         <v/>
       </c>
-      <c r="O27" s="10" t="str">
+      <c r="O27" s="11" t="str">
         <f>IF(_val_month_day!M34="","",_val_month_day!M34)</f>
         <v/>
       </c>
-      <c r="P27" s="10" t="str">
+      <c r="P27" s="11" t="str">
         <f>IF(_val_month_day!N34="","",_val_month_day!N34)</f>
         <v/>
       </c>
-      <c r="Q27" s="10" t="str">
+      <c r="Q27" s="11" t="str">
         <f>IF(_val_month_day!O34="","",_val_month_day!O34)</f>
         <v/>
       </c>
-      <c r="R27" s="10" t="str">
+      <c r="R27" s="11" t="str">
         <f>IF(_val_month_day!P34="","",_val_month_day!P34)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="28">
-      <c r="B28" s="9">
-        <f ca="1">B27+1</f>
-        <v>43671</v>
-      </c>
-      <c r="C28" s="10" t="str">
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11" t="str">
         <f>IF(_val_month_day!A35="","",_val_month_day!A35)</f>
         <v/>
       </c>
-      <c r="D28" s="10" t="str">
+      <c r="D28" s="11" t="str">
         <f>IF(_val_month_day!B35="","",_val_month_day!B35)</f>
         <v/>
       </c>
-      <c r="E28" s="10" t="str">
+      <c r="E28" s="11" t="str">
         <f>IF(_val_month_day!C35="","",_val_month_day!C35)</f>
         <v/>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F28" s="11" t="str">
         <f>IF(_val_month_day!D35="","",_val_month_day!D35)</f>
         <v/>
       </c>
-      <c r="G28" s="10" t="str">
+      <c r="G28" s="11" t="str">
         <f>IF(_val_month_day!E35="","",_val_month_day!E35)</f>
         <v/>
       </c>
-      <c r="H28" s="10" t="str">
+      <c r="H28" s="11" t="str">
         <f>IF(_val_month_day!F35="","",_val_month_day!F35)</f>
         <v/>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="11" t="str">
         <f>IF(_val_month_day!G35="","",_val_month_day!G35)</f>
         <v/>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" s="11" t="str">
         <f>IF(_val_month_day!H35="","",_val_month_day!H35)</f>
         <v/>
       </c>
-      <c r="K28" s="10" t="str">
+      <c r="K28" s="11" t="str">
         <f>IF(_val_month_day!I35="","",_val_month_day!I35)</f>
         <v/>
       </c>
-      <c r="L28" s="10" t="str">
+      <c r="L28" s="11" t="str">
         <f>IF(_val_month_day!J35="","",_val_month_day!J35)</f>
         <v/>
       </c>
-      <c r="M28" s="10" t="str">
+      <c r="M28" s="11" t="str">
         <f>IF(_val_month_day!K35="","",_val_month_day!K35)</f>
         <v/>
       </c>
-      <c r="N28" s="10" t="str">
+      <c r="N28" s="11" t="str">
         <f>IF(_val_month_day!L35="","",_val_month_day!L35)</f>
         <v/>
       </c>
-      <c r="O28" s="10" t="str">
+      <c r="O28" s="11" t="str">
         <f>IF(_val_month_day!M35="","",_val_month_day!M35)</f>
         <v/>
       </c>
-      <c r="P28" s="10" t="str">
+      <c r="P28" s="11" t="str">
         <f>IF(_val_month_day!N35="","",_val_month_day!N35)</f>
         <v/>
       </c>
-      <c r="Q28" s="10" t="str">
+      <c r="Q28" s="11" t="str">
         <f>IF(_val_month_day!O35="","",_val_month_day!O35)</f>
         <v/>
       </c>
-      <c r="R28" s="10" t="str">
+      <c r="R28" s="11" t="str">
         <f>IF(_val_month_day!P35="","",_val_month_day!P35)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="29">
-      <c r="B29" s="9">
-        <f ca="1">B28+1</f>
-        <v>43672</v>
-      </c>
-      <c r="C29" s="10" t="str">
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="str">
         <f>IF(_val_month_day!A36="","",_val_month_day!A36)</f>
         <v/>
       </c>
-      <c r="D29" s="10" t="str">
+      <c r="D29" s="11" t="str">
         <f>IF(_val_month_day!B36="","",_val_month_day!B36)</f>
         <v/>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="11" t="str">
         <f>IF(_val_month_day!C36="","",_val_month_day!C36)</f>
         <v/>
       </c>
-      <c r="F29" s="10" t="str">
+      <c r="F29" s="11" t="str">
         <f>IF(_val_month_day!D36="","",_val_month_day!D36)</f>
         <v/>
       </c>
-      <c r="G29" s="10" t="str">
+      <c r="G29" s="11" t="str">
         <f>IF(_val_month_day!E36="","",_val_month_day!E36)</f>
         <v/>
       </c>
-      <c r="H29" s="10" t="str">
+      <c r="H29" s="11" t="str">
         <f>IF(_val_month_day!F36="","",_val_month_day!F36)</f>
         <v/>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="11" t="str">
         <f>IF(_val_month_day!G36="","",_val_month_day!G36)</f>
         <v/>
       </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="11" t="str">
         <f>IF(_val_month_day!H36="","",_val_month_day!H36)</f>
         <v/>
       </c>
-      <c r="K29" s="10" t="str">
+      <c r="K29" s="11" t="str">
         <f>IF(_val_month_day!I36="","",_val_month_day!I36)</f>
         <v/>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="11" t="str">
         <f>IF(_val_month_day!J36="","",_val_month_day!J36)</f>
         <v/>
       </c>
-      <c r="M29" s="10" t="str">
+      <c r="M29" s="11" t="str">
         <f>IF(_val_month_day!K36="","",_val_month_day!K36)</f>
         <v/>
       </c>
-      <c r="N29" s="10" t="str">
+      <c r="N29" s="11" t="str">
         <f>IF(_val_month_day!L36="","",_val_month_day!L36)</f>
         <v/>
       </c>
-      <c r="O29" s="10" t="str">
+      <c r="O29" s="11" t="str">
         <f>IF(_val_month_day!M36="","",_val_month_day!M36)</f>
         <v/>
       </c>
-      <c r="P29" s="10" t="str">
+      <c r="P29" s="11" t="str">
         <f>IF(_val_month_day!N36="","",_val_month_day!N36)</f>
         <v/>
       </c>
-      <c r="Q29" s="10" t="str">
+      <c r="Q29" s="11" t="str">
         <f>IF(_val_month_day!O36="","",_val_month_day!O36)</f>
         <v/>
       </c>
-      <c r="R29" s="10" t="str">
+      <c r="R29" s="11" t="str">
         <f>IF(_val_month_day!P36="","",_val_month_day!P36)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="30">
-      <c r="B30" s="9">
-        <f ca="1">B29+1</f>
-        <v>43673</v>
-      </c>
-      <c r="C30" s="10" t="str">
+      <c r="B30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11" t="str">
         <f>IF(_val_month_day!A37="","",_val_month_day!A37)</f>
         <v/>
       </c>
-      <c r="D30" s="10" t="str">
+      <c r="D30" s="11" t="str">
         <f>IF(_val_month_day!B37="","",_val_month_day!B37)</f>
         <v/>
       </c>
-      <c r="E30" s="10" t="str">
+      <c r="E30" s="11" t="str">
         <f>IF(_val_month_day!C37="","",_val_month_day!C37)</f>
         <v/>
       </c>
-      <c r="F30" s="10" t="str">
+      <c r="F30" s="11" t="str">
         <f>IF(_val_month_day!D37="","",_val_month_day!D37)</f>
         <v/>
       </c>
-      <c r="G30" s="10" t="str">
+      <c r="G30" s="11" t="str">
         <f>IF(_val_month_day!E37="","",_val_month_day!E37)</f>
         <v/>
       </c>
-      <c r="H30" s="10" t="str">
+      <c r="H30" s="11" t="str">
         <f>IF(_val_month_day!F37="","",_val_month_day!F37)</f>
         <v/>
       </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="11" t="str">
         <f>IF(_val_month_day!G37="","",_val_month_day!G37)</f>
         <v/>
       </c>
-      <c r="J30" s="10" t="str">
+      <c r="J30" s="11" t="str">
         <f>IF(_val_month_day!H37="","",_val_month_day!H37)</f>
         <v/>
       </c>
-      <c r="K30" s="10" t="str">
+      <c r="K30" s="11" t="str">
         <f>IF(_val_month_day!I37="","",_val_month_day!I37)</f>
         <v/>
       </c>
-      <c r="L30" s="10" t="str">
+      <c r="L30" s="11" t="str">
         <f>IF(_val_month_day!J37="","",_val_month_day!J37)</f>
         <v/>
       </c>
-      <c r="M30" s="10" t="str">
+      <c r="M30" s="11" t="str">
         <f>IF(_val_month_day!K37="","",_val_month_day!K37)</f>
         <v/>
       </c>
-      <c r="N30" s="10" t="str">
+      <c r="N30" s="11" t="str">
         <f>IF(_val_month_day!L37="","",_val_month_day!L37)</f>
         <v/>
       </c>
-      <c r="O30" s="10" t="str">
+      <c r="O30" s="11" t="str">
         <f>IF(_val_month_day!M37="","",_val_month_day!M37)</f>
         <v/>
       </c>
-      <c r="P30" s="10" t="str">
+      <c r="P30" s="11" t="str">
         <f>IF(_val_month_day!N37="","",_val_month_day!N37)</f>
         <v/>
       </c>
-      <c r="Q30" s="10" t="str">
+      <c r="Q30" s="11" t="str">
         <f>IF(_val_month_day!O37="","",_val_month_day!O37)</f>
         <v/>
       </c>
-      <c r="R30" s="10" t="str">
+      <c r="R30" s="11" t="str">
         <f>IF(_val_month_day!P37="","",_val_month_day!P37)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="31">
-      <c r="B31" s="9">
-        <f ca="1">B30+1</f>
-        <v>43674</v>
-      </c>
-      <c r="C31" s="10" t="str">
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="str">
         <f>IF(_val_month_day!A38="","",_val_month_day!A38)</f>
         <v/>
       </c>
-      <c r="D31" s="10" t="str">
+      <c r="D31" s="11" t="str">
         <f>IF(_val_month_day!B38="","",_val_month_day!B38)</f>
         <v/>
       </c>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="11" t="str">
         <f>IF(_val_month_day!C38="","",_val_month_day!C38)</f>
         <v/>
       </c>
-      <c r="F31" s="10" t="str">
+      <c r="F31" s="11" t="str">
         <f>IF(_val_month_day!D38="","",_val_month_day!D38)</f>
         <v/>
       </c>
-      <c r="G31" s="10" t="str">
+      <c r="G31" s="11" t="str">
         <f>IF(_val_month_day!E38="","",_val_month_day!E38)</f>
         <v/>
       </c>
-      <c r="H31" s="10" t="str">
+      <c r="H31" s="11" t="str">
         <f>IF(_val_month_day!F38="","",_val_month_day!F38)</f>
         <v/>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="11" t="str">
         <f>IF(_val_month_day!G38="","",_val_month_day!G38)</f>
         <v/>
       </c>
-      <c r="J31" s="10" t="str">
+      <c r="J31" s="11" t="str">
         <f>IF(_val_month_day!H38="","",_val_month_day!H38)</f>
         <v/>
       </c>
-      <c r="K31" s="10" t="str">
+      <c r="K31" s="11" t="str">
         <f>IF(_val_month_day!I38="","",_val_month_day!I38)</f>
         <v/>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="11" t="str">
         <f>IF(_val_month_day!J38="","",_val_month_day!J38)</f>
         <v/>
       </c>
-      <c r="M31" s="10" t="str">
+      <c r="M31" s="11" t="str">
         <f>IF(_val_month_day!K38="","",_val_month_day!K38)</f>
         <v/>
       </c>
-      <c r="N31" s="10" t="str">
+      <c r="N31" s="11" t="str">
         <f>IF(_val_month_day!L38="","",_val_month_day!L38)</f>
         <v/>
       </c>
-      <c r="O31" s="10" t="str">
+      <c r="O31" s="11" t="str">
         <f>IF(_val_month_day!M38="","",_val_month_day!M38)</f>
         <v/>
       </c>
-      <c r="P31" s="10" t="str">
+      <c r="P31" s="11" t="str">
         <f>IF(_val_month_day!N38="","",_val_month_day!N38)</f>
         <v/>
       </c>
-      <c r="Q31" s="10" t="str">
+      <c r="Q31" s="11" t="str">
         <f>IF(_val_month_day!O38="","",_val_month_day!O38)</f>
         <v/>
       </c>
-      <c r="R31" s="10" t="str">
+      <c r="R31" s="11" t="str">
         <f>IF(_val_month_day!P38="","",_val_month_day!P38)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="32">
-      <c r="B32" s="9">
-        <f ca="1">B31+1</f>
-        <v>43675</v>
-      </c>
-      <c r="C32" s="10" t="str">
+      <c r="B32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11" t="str">
         <f>IF(_val_month_day!A39="","",_val_month_day!A39)</f>
         <v/>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="D32" s="11" t="str">
         <f>IF(_val_month_day!B39="","",_val_month_day!B39)</f>
         <v/>
       </c>
-      <c r="E32" s="10" t="str">
+      <c r="E32" s="11" t="str">
         <f>IF(_val_month_day!C39="","",_val_month_day!C39)</f>
         <v/>
       </c>
-      <c r="F32" s="10" t="str">
+      <c r="F32" s="11" t="str">
         <f>IF(_val_month_day!D39="","",_val_month_day!D39)</f>
         <v/>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="11" t="str">
         <f>IF(_val_month_day!E39="","",_val_month_day!E39)</f>
         <v/>
       </c>
-      <c r="H32" s="10" t="str">
+      <c r="H32" s="11" t="str">
         <f>IF(_val_month_day!F39="","",_val_month_day!F39)</f>
         <v/>
       </c>
-      <c r="I32" s="10" t="str">
+      <c r="I32" s="11" t="str">
         <f>IF(_val_month_day!G39="","",_val_month_day!G39)</f>
         <v/>
       </c>
-      <c r="J32" s="10" t="str">
+      <c r="J32" s="11" t="str">
         <f>IF(_val_month_day!H39="","",_val_month_day!H39)</f>
         <v/>
       </c>
-      <c r="K32" s="10" t="str">
+      <c r="K32" s="11" t="str">
         <f>IF(_val_month_day!I39="","",_val_month_day!I39)</f>
         <v/>
       </c>
-      <c r="L32" s="10" t="str">
+      <c r="L32" s="11" t="str">
         <f>IF(_val_month_day!J39="","",_val_month_day!J39)</f>
         <v/>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="M32" s="11" t="str">
         <f>IF(_val_month_day!K39="","",_val_month_day!K39)</f>
         <v/>
       </c>
-      <c r="N32" s="10" t="str">
+      <c r="N32" s="11" t="str">
         <f>IF(_val_month_day!L39="","",_val_month_day!L39)</f>
         <v/>
       </c>
-      <c r="O32" s="10" t="str">
+      <c r="O32" s="11" t="str">
         <f>IF(_val_month_day!M39="","",_val_month_day!M39)</f>
         <v/>
       </c>
-      <c r="P32" s="10" t="str">
+      <c r="P32" s="11" t="str">
         <f>IF(_val_month_day!N39="","",_val_month_day!N39)</f>
         <v/>
       </c>
-      <c r="Q32" s="10" t="str">
+      <c r="Q32" s="11" t="str">
         <f>IF(_val_month_day!O39="","",_val_month_day!O39)</f>
         <v/>
       </c>
-      <c r="R32" s="10" t="str">
+      <c r="R32" s="11" t="str">
         <f>IF(_val_month_day!P39="","",_val_month_day!P39)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="33">
-      <c r="B33" s="9">
-        <f ca="1">B32+1</f>
-        <v>43676</v>
-      </c>
-      <c r="C33" s="10" t="str">
+      <c r="B33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="11" t="str">
         <f>IF(_val_month_day!A40="","",_val_month_day!A40)</f>
         <v/>
       </c>
-      <c r="D33" s="10" t="str">
+      <c r="D33" s="11" t="str">
         <f>IF(_val_month_day!B40="","",_val_month_day!B40)</f>
         <v/>
       </c>
-      <c r="E33" s="10" t="str">
+      <c r="E33" s="11" t="str">
         <f>IF(_val_month_day!C40="","",_val_month_day!C40)</f>
         <v/>
       </c>
-      <c r="F33" s="10" t="str">
+      <c r="F33" s="11" t="str">
         <f>IF(_val_month_day!D40="","",_val_month_day!D40)</f>
         <v/>
       </c>
-      <c r="G33" s="10" t="str">
+      <c r="G33" s="11" t="str">
         <f>IF(_val_month_day!E40="","",_val_month_day!E40)</f>
         <v/>
       </c>
-      <c r="H33" s="10" t="str">
+      <c r="H33" s="11" t="str">
         <f>IF(_val_month_day!F40="","",_val_month_day!F40)</f>
         <v/>
       </c>
-      <c r="I33" s="10" t="str">
+      <c r="I33" s="11" t="str">
         <f>IF(_val_month_day!G40="","",_val_month_day!G40)</f>
         <v/>
       </c>
-      <c r="J33" s="10" t="str">
+      <c r="J33" s="11" t="str">
         <f>IF(_val_month_day!H40="","",_val_month_day!H40)</f>
         <v/>
       </c>
-      <c r="K33" s="10" t="str">
+      <c r="K33" s="11" t="str">
         <f>IF(_val_month_day!I40="","",_val_month_day!I40)</f>
         <v/>
       </c>
-      <c r="L33" s="10" t="str">
+      <c r="L33" s="11" t="str">
         <f>IF(_val_month_day!J40="","",_val_month_day!J40)</f>
         <v/>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="M33" s="11" t="str">
         <f>IF(_val_month_day!K40="","",_val_month_day!K40)</f>
         <v/>
       </c>
-      <c r="N33" s="10" t="str">
+      <c r="N33" s="11" t="str">
         <f>IF(_val_month_day!L40="","",_val_month_day!L40)</f>
         <v/>
       </c>
-      <c r="O33" s="10" t="str">
+      <c r="O33" s="11" t="str">
         <f>IF(_val_month_day!M40="","",_val_month_day!M40)</f>
         <v/>
       </c>
-      <c r="P33" s="10" t="str">
+      <c r="P33" s="11" t="str">
         <f>IF(_val_month_day!N40="","",_val_month_day!N40)</f>
         <v/>
       </c>
-      <c r="Q33" s="10" t="str">
+      <c r="Q33" s="11" t="str">
         <f>IF(_val_month_day!O40="","",_val_month_day!O40)</f>
         <v/>
       </c>
-      <c r="R33" s="10" t="str">
+      <c r="R33" s="11" t="str">
         <f>IF(_val_month_day!P40="","",_val_month_day!P40)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="34">
-      <c r="B34" s="9">
-        <f ca="1">B33+1</f>
-        <v>43677</v>
-      </c>
-      <c r="C34" s="10" t="str">
+      <c r="B34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="11" t="str">
         <f>IF(_val_month_day!A41="","",_val_month_day!A41)</f>
         <v/>
       </c>
-      <c r="D34" s="10" t="str">
+      <c r="D34" s="11" t="str">
         <f>IF(_val_month_day!B41="","",_val_month_day!B41)</f>
         <v/>
       </c>
-      <c r="E34" s="10" t="str">
+      <c r="E34" s="11" t="str">
         <f>IF(_val_month_day!C41="","",_val_month_day!C41)</f>
         <v/>
       </c>
-      <c r="F34" s="10" t="str">
+      <c r="F34" s="11" t="str">
         <f>IF(_val_month_day!D41="","",_val_month_day!D41)</f>
         <v/>
       </c>
-      <c r="G34" s="10" t="str">
+      <c r="G34" s="11" t="str">
         <f>IF(_val_month_day!E41="","",_val_month_day!E41)</f>
         <v/>
       </c>
-      <c r="H34" s="10" t="str">
+      <c r="H34" s="11" t="str">
         <f>IF(_val_month_day!F41="","",_val_month_day!F41)</f>
         <v/>
       </c>
-      <c r="I34" s="10" t="str">
+      <c r="I34" s="11" t="str">
         <f>IF(_val_month_day!G41="","",_val_month_day!G41)</f>
         <v/>
       </c>
-      <c r="J34" s="10" t="str">
+      <c r="J34" s="11" t="str">
         <f>IF(_val_month_day!H41="","",_val_month_day!H41)</f>
         <v/>
       </c>
-      <c r="K34" s="10" t="str">
+      <c r="K34" s="11" t="str">
         <f>IF(_val_month_day!I41="","",_val_month_day!I41)</f>
         <v/>
       </c>
-      <c r="L34" s="10" t="str">
+      <c r="L34" s="11" t="str">
         <f>IF(_val_month_day!J41="","",_val_month_day!J41)</f>
         <v/>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="11" t="str">
         <f>IF(_val_month_day!K41="","",_val_month_day!K41)</f>
         <v/>
       </c>
-      <c r="N34" s="10" t="str">
+      <c r="N34" s="11" t="str">
         <f>IF(_val_month_day!L41="","",_val_month_day!L41)</f>
         <v/>
       </c>
-      <c r="O34" s="10" t="str">
+      <c r="O34" s="11" t="str">
         <f>IF(_val_month_day!M41="","",_val_month_day!M41)</f>
         <v/>
       </c>
-      <c r="P34" s="10" t="str">
+      <c r="P34" s="11" t="str">
         <f>IF(_val_month_day!N41="","",_val_month_day!N41)</f>
         <v/>
       </c>
-      <c r="Q34" s="10" t="str">
+      <c r="Q34" s="11" t="str">
         <f>IF(_val_month_day!O41="","",_val_month_day!O41)</f>
         <v/>
       </c>
-      <c r="R34" s="10" t="str">
+      <c r="R34" s="11" t="str">
         <f>IF(_val_month_day!P41="","",_val_month_day!P41)</f>
         <v/>
       </c>
     </row>
     <row ht="16.5" customHeight="1" r="35">
-      <c r="B35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="10" t="str">
+      <c r="B35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="11" t="str">
         <f>IF(COUNTBLANK(C4:C34)&gt;30,"",SUM(C4:C34))</f>
         <v/>
       </c>
-      <c r="D35" s="10" t="str">
+      <c r="D35" s="11" t="str">
         <f>IF(COUNTBLANK(D4:D34)&gt;30,"",SUM(D4:D34))</f>
         <v/>
       </c>
-      <c r="E35" s="10" t="str">
+      <c r="E35" s="11" t="str">
         <f>IF(COUNTBLANK(E4:E34)&gt;30,"",SUM(E4:E34))</f>
         <v/>
       </c>
-      <c r="F35" s="10" t="str">
+      <c r="F35" s="11" t="str">
         <f>IF(COUNTBLANK(F4:F34)&gt;30,"",SUM(F4:F34))</f>
         <v/>
       </c>
-      <c r="G35" s="10" t="str">
+      <c r="G35" s="11" t="str">
         <f>IF(COUNTBLANK(G4:G34)&gt;30,"",SUM(G4:G34))</f>
         <v/>
       </c>
-      <c r="H35" s="10" t="str">
+      <c r="H35" s="11" t="str">
         <f>IF(COUNTBLANK(H4:H34)&gt;30,"",SUM(H4:H34))</f>
         <v/>
       </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="11" t="str">
         <f>IF(COUNTBLANK(I4:I34)&gt;30,"",SUM(I4:I34))</f>
         <v/>
       </c>
-      <c r="J35" s="10" t="str">
+      <c r="J35" s="11" t="str">
         <f>IF(COUNTBLANK(J4:J34)&gt;30,"",SUM(J4:J34))</f>
         <v/>
       </c>
-      <c r="K35" s="10" t="str">
+      <c r="K35" s="11" t="str">
         <f>IF(COUNTBLANK(K4:K34)&gt;30,"",SUM(K4:K34))</f>
         <v/>
       </c>
-      <c r="L35" s="10" t="str">
+      <c r="L35" s="11" t="str">
         <f>IF(COUNTBLANK(L4:L34)&gt;30,"",SUM(L4:L34))</f>
         <v/>
       </c>
-      <c r="M35" s="10" t="str">
+      <c r="M35" s="11" t="str">
         <f>IF(COUNTBLANK(M4:M34)&gt;30,"",SUM(M4:M34))</f>
         <v/>
       </c>
-      <c r="N35" s="10" t="str">
+      <c r="N35" s="11" t="str">
         <f>IF(COUNTBLANK(N4:N34)&gt;30,"",SUM(N4:N34))</f>
         <v/>
       </c>
-      <c r="O35" s="10" t="str">
+      <c r="O35" s="11" t="str">
         <f>IF(COUNTBLANK(O4:O34)&gt;30,"",SUM(O4:O34))</f>
         <v/>
       </c>
-      <c r="P35" s="10" t="str">
+      <c r="P35" s="11" t="str">
         <f>IF(COUNTBLANK(P4:P34)&gt;30,"",SUM(P4:P34))</f>
         <v/>
       </c>
-      <c r="Q35" s="10" t="str">
+      <c r="Q35" s="11" t="str">
         <f>IF(COUNTBLANK(Q4:Q34)&gt;30,"",SUM(Q4:Q34))</f>
         <v/>
       </c>
-      <c r="R35" s="10" t="str">
+      <c r="R35" s="11" t="str">
         <f>IF(COUNTBLANK(R4:R34)&gt;30,"",SUM(R4:R34))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:N1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="K2:P2"/>
   </mergeCells>
@@ -3801,183 +3879,183 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>9</v>
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
+      <c r="A4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>33</v>
+      <c r="A5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>39</v>
+      <c r="A6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
+      <c r="A7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
+      <c r="A8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>57</v>
+      <c r="A9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
